--- a/Correlation Analysis/Correlation Results/departmentCorrelationMatrix.xlsx
+++ b/Correlation Analysis/Correlation Results/departmentCorrelationMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christine\Documents\Instacart Data\Instacart_DataAnalytics\Correlation Analysis\Correlation Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33C71F7-284C-43E0-92A9-67C8B3F56AA7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60216C7-1A31-428F-BF3A-1A268C22BC7C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8610" windowHeight="2595" xr2:uid="{6EA7DB0A-67A5-45AC-BF9C-57A14492BED4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Frozen</t>
   </si>
@@ -104,11 +104,26 @@
   <si>
     <t>DryGoods Pasta</t>
   </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,18 +185,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -190,13 +199,495 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="121">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5D5D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8633"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00DA63"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF43CEFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF43CEFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00DA63"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8633"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5D5D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF43CEFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00DA63"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8633"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5D5D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF43CEFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00DA63"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8633"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5D5D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF43CEFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00DA63"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8633"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5D5D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5D5D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8633"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00DA63"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF43CEFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF43CEFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00DA63"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8633"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5D5D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5D5D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8633"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00DA63"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF43CEFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF43CEFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00DA63"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8633"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5D5D"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -215,6 +706,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -240,6 +732,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -265,6 +758,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -290,6 +784,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -315,6 +810,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -340,6 +836,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -365,6 +862,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -390,6 +888,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -415,6 +914,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -440,6 +940,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -465,6 +966,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -490,6 +992,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -515,6 +1018,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -540,6 +1044,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -565,6 +1070,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -590,6 +1096,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -615,6 +1122,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -640,6 +1148,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -665,6 +1174,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -690,6 +1200,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -715,6 +1226,32 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -749,32 +1286,240 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF43CEFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00DA63"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8633"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5D5D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF43CEFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00DA63"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8633"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5D5D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00DA63"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8633"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5D5D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8633"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5D5D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8633"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5D5D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8633"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5D5D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5D5D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{CC33C926-5772-4134-B0D0-9876C3202C75}">
+      <tableStyleElement type="wholeTable" dxfId="120"/>
+      <tableStyleElement type="headerRow" dxfId="119"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5D5D"/>
+      <color rgb="FF00DA63"/>
+      <color rgb="FF007FAC"/>
+      <color rgb="FF43CEFF"/>
+      <color rgb="FFCCFF33"/>
+      <color rgb="FFFFFF71"/>
+      <color rgb="FFFFA953"/>
+      <color rgb="FFFF9933"/>
+      <color rgb="FFFF8633"/>
+      <color rgb="FFFF4B4B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -787,31 +1532,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD562094-4410-45FE-97AC-DC6474B0960E}" name="Table1" displayName="Table1" ref="A1:V22" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:V22" xr:uid="{13332AB6-51C3-40CC-8F5F-7E5EFADD0575}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3E989072-BA4C-4FC3-B11E-526CC7AA200B}" name="Table13" displayName="Table13" ref="A1:V22" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
+  <autoFilter ref="A1:V22" xr:uid="{A1F3F026-2866-4047-AEE5-6B67012A16E9}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{843D5FD0-A57B-46E0-B34D-6AC96C4C2C8E}" name="Column1" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{B26EFC40-F734-4BC7-AD13-9AF763FB2090}" name="Frozen" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{734FAE6F-03B9-4E62-B56B-125FF2D9E1F4}" name="Other" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{011B8AFF-0C0A-493A-A9B3-3C90E5E24764}" name="Bakery" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{6319D0C7-D861-49F4-BA1A-CF6D82F55EFE}" name="Produce" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{A36726FA-C7FE-428F-B544-E46054734624}" name="Alcohol" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{83A6A716-4D57-49AA-B04F-37B906EC4785}" name="International" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{9988690E-A2E2-407F-BAF5-74918E55EF45}" name="Beverages" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{9DA25BEF-08E0-40BC-AEA5-957B132F2D02}" name="Pets" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{2BE972BA-30C3-4B23-8B07-FC64E39C1CDA}" name="DryGoodsPasta" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{F8D2D9B3-B370-436A-8A51-43C7E3B1285E}" name="Bulk" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{FB2BE5AF-6034-4B8E-AA1E-0D691D321CBB}" name="PersonalCare" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{2C31003E-003D-4286-A70C-BA22B563DC44}" name="MeatSeafood" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{BA2FA900-8C43-4C49-AF30-78E1667D15A4}" name="Pantry" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{F800355F-256A-46FF-8AB6-75DE859B8392}" name="Breakfast" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{7B38B1A6-3D36-41A0-983B-1CF516CF0D1D}" name="CannedGoods" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{AD3D4660-5C73-4B2B-8B6A-42947336FE8A}" name="DairyEggs" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{33F5D3BE-FF6D-4FAD-8F56-4ECBF1752DC5}" name="HouseHold" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{80F72915-149A-4CF2-9CB3-A5638E53BA45}" name="Babies" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{3EA33065-5739-405C-AE33-F5F5D0AF4809}" name="Snacks" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{FE3EFBAD-742E-4802-B146-909B4E22B081}" name="Deli" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{B617A0AB-8A31-45CE-9092-602DDA8B82BC}" name="Missing" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1B1A1D43-B817-45EA-997A-9B416DCD8844}" name="Column1" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{66AA2328-CFBF-47FF-9F5D-C4D0682F397A}" name="Frozen" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{16164917-1943-44B3-87DE-D337E761DBA3}" name="Other" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{C7BAEA8A-61A1-4837-A852-76BE79366056}" name="Bakery" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{935A654C-C0F5-493B-8B50-00D46A4719D0}" name="Produce" dataDxfId="85"/>
+    <tableColumn id="6" xr3:uid="{934C717B-547F-4AC8-BE40-17D6118CDB24}" name="Alcohol" dataDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{CD2C6430-2242-404C-BDC8-32C35416000F}" name="International" dataDxfId="83"/>
+    <tableColumn id="8" xr3:uid="{818D4275-F3F1-4EF5-8CBA-DC46149572FE}" name="Beverages" dataDxfId="82"/>
+    <tableColumn id="9" xr3:uid="{BC4C1CFD-F53D-46A9-BDD7-82929BD80A0C}" name="Pets" dataDxfId="81"/>
+    <tableColumn id="10" xr3:uid="{BCF06846-FBB4-464E-BE62-C6998D3E8AF2}" name="DryGoodsPasta" dataDxfId="80"/>
+    <tableColumn id="11" xr3:uid="{3EBE6CCD-0BC5-4D3C-A6FB-97CA3C805B5F}" name="Bulk" dataDxfId="79"/>
+    <tableColumn id="12" xr3:uid="{D17A7452-1B46-4FF5-8DBB-D529439245A2}" name="PersonalCare" dataDxfId="78"/>
+    <tableColumn id="13" xr3:uid="{2E90C497-BCD3-4791-BE2E-564749A0F760}" name="MeatSeafood" dataDxfId="77"/>
+    <tableColumn id="14" xr3:uid="{872354A5-E84E-4C26-B521-298B967A5EA7}" name="Pantry" dataDxfId="76"/>
+    <tableColumn id="15" xr3:uid="{F8CC5500-A108-4FF4-8CB7-241A7EE57AA7}" name="Breakfast" dataDxfId="75"/>
+    <tableColumn id="16" xr3:uid="{2DB870D9-4BD9-4DDF-89A9-B8998589B82A}" name="CannedGoods" dataDxfId="74"/>
+    <tableColumn id="17" xr3:uid="{B2C94CB7-A567-433D-8D48-D838FDAFB83F}" name="DairyEggs" dataDxfId="73"/>
+    <tableColumn id="18" xr3:uid="{E31D36C2-F8EC-4E28-ADB4-90342050DA59}" name="HouseHold" dataDxfId="72"/>
+    <tableColumn id="19" xr3:uid="{78668B53-0DFF-4FF6-B5E6-DDC86D863182}" name="Babies" dataDxfId="71"/>
+    <tableColumn id="20" xr3:uid="{DA48D088-469D-471D-BB5D-4E7CB9D0AE10}" name="Snacks" dataDxfId="70"/>
+    <tableColumn id="21" xr3:uid="{98467B8E-B111-43C9-8A0E-86F452BE4616}" name="Deli" dataDxfId="69"/>
+    <tableColumn id="22" xr3:uid="{E8D01234-5441-4FF5-95E9-4921765C962A}" name="Missing" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1116,98 +1861,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E74CE9D-9438-4311-805C-C9680E247DE4}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="5" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="5"/>
-    <col min="10" max="10" width="16.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="14.85546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="15" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="5"/>
-    <col min="15" max="15" width="11.42578125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="5" customWidth="1"/>
-    <col min="19" max="21" width="9.140625" style="5"/>
-    <col min="22" max="22" width="9.85546875" style="5" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="11" style="3" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="16.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="3"/>
+    <col min="12" max="12" width="14.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="11.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="3" customWidth="1"/>
+    <col min="19" max="21" width="9.140625" style="3"/>
+    <col min="22" max="22" width="9.85546875" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1215,135 +1960,135 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>7.4144000000000002E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>0.32791799999999999</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>0.356321</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>2.8143999999999999E-2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>0.18463199999999999</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="5">
         <v>0.27467399999999997</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="5">
         <v>7.7384999999999995E-2</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="5">
         <v>0.33513700000000002</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="5">
         <v>3.7491999999999998E-2</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="5">
         <v>0.19864399999999999</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="5">
         <v>0.25750600000000001</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="5">
         <v>0.33041500000000001</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="5">
         <v>0.26433299999999998</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="5">
         <v>0.30362</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="5">
         <v>0.40477999999999997</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="5">
         <v>0.19439600000000001</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="5">
         <v>0.13017999999999999</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="5">
         <v>0.34223199999999998</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="5">
         <v>0.310531</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="5">
         <v>0.106239</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>7.4144000000000002E-2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>6.8456000000000003E-2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>8.1087999999999993E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>6.5293000000000004E-2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="6">
         <v>3.8628000000000003E-2</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="6">
         <v>6.6780999999999993E-2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="6">
         <v>2.2832999999999999E-2</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="6">
         <v>6.0464999999999998E-2</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="6">
         <v>1.2057E-2</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="6">
         <v>7.6324000000000003E-2</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="6">
         <v>4.4777999999999998E-2</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="6">
         <v>8.8876999999999998E-2</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="6">
         <v>5.2932E-2</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="6">
         <v>5.9179000000000002E-2</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="6">
         <v>7.4761999999999995E-2</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="6">
         <v>7.8143000000000004E-2</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="6">
         <v>3.4762000000000001E-2</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="6">
         <v>6.9305000000000005E-2</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="6">
         <v>5.1236999999999998E-2</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="6">
         <v>2.5971000000000001E-2</v>
       </c>
     </row>
@@ -1351,135 +2096,135 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>0.32791799999999999</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>6.8456000000000003E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>0.357348</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="5">
         <v>5.4536000000000001E-2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>0.163496</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="5">
         <v>0.26096000000000003</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <v>5.5428999999999999E-2</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="5">
         <v>0.28765400000000002</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="5">
         <v>4.1931000000000003E-2</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="5">
         <v>0.15779599999999999</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="5">
         <v>0.261382</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="5">
         <v>0.32259100000000002</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="5">
         <v>0.27987000000000001</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="5">
         <v>0.264791</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="5">
         <v>0.43276599999999998</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="5">
         <v>0.18465699999999999</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="5">
         <v>9.6303E-2</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="5">
         <v>0.32625700000000002</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="5">
         <v>0.33039499999999999</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="5">
         <v>7.4330999999999994E-2</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="7">
         <v>0.356321</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>8.1087999999999993E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>0.357348</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>5.3569999999999998E-3</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="6">
         <v>0.24801500000000001</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="6">
         <v>0.260934</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="6">
         <v>3.1690999999999997E-2</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="6">
         <v>0.36444799999999999</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="6">
         <v>0.107949</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="6">
         <v>0.175397</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="6">
         <v>0.34871200000000002</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="6">
         <v>0.42643500000000001</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="6">
         <v>0.24379999999999999</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="6">
         <v>0.40111200000000002</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="6">
         <v>0.52540500000000001</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="6">
         <v>0.15931899999999999</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="6">
         <v>0.146347</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="6">
         <v>0.32796700000000001</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="6">
         <v>0.37041499999999999</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="6">
         <v>0.116768</v>
       </c>
     </row>
@@ -1487,135 +2232,135 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>2.8143999999999999E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>6.5293000000000004E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>5.4536000000000001E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>5.3569999999999998E-3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <v>1.3044E-2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="5">
         <v>7.3425000000000004E-2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="5">
         <v>1.9946999999999999E-2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="5">
         <v>2.4292999999999999E-2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="5">
         <v>-4.0289999999999996E-3</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="5">
         <v>2.2551999999999999E-2</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="5">
         <v>2.1197000000000001E-2</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="5">
         <v>4.3174999999999998E-2</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="5">
         <v>2.9666000000000001E-2</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="5">
         <v>2.7911999999999999E-2</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="5">
         <v>3.5902000000000003E-2</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="5">
         <v>6.4965999999999996E-2</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="5">
         <v>-5.1900000000000004E-4</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="5">
         <v>5.8543999999999999E-2</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="5">
         <v>3.8587999999999997E-2</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="5">
         <v>1.3601E-2</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>0.18463199999999999</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>3.8628000000000003E-2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>0.163496</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>0.24801500000000001</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>1.3044E-2</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="6">
         <v>0.128335</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="6">
         <v>2.6644999999999999E-2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="6">
         <v>0.190189</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="6">
         <v>3.6017E-2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="6">
         <v>9.1423000000000004E-2</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="6">
         <v>0.136848</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="6">
         <v>0.242729</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="6">
         <v>0.117648</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="6">
         <v>0.22103999999999999</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="6">
         <v>0.204985</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="6">
         <v>9.2287999999999995E-2</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="6">
         <v>4.9126999999999997E-2</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="6">
         <v>0.17435</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="6">
         <v>0.17186599999999999</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="6">
         <v>4.9905999999999999E-2</v>
       </c>
     </row>
@@ -1623,135 +2368,135 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>0.27467399999999997</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>6.6780999999999993E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>0.26096000000000003</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
         <v>0.260934</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="5">
         <v>7.3425000000000004E-2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>0.128335</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="5">
         <v>6.5340999999999996E-2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="5">
         <v>0.178289</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="5">
         <v>4.7738000000000003E-2</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="5">
         <v>0.19334899999999999</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="5">
         <v>0.156914</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="5">
         <v>0.25718800000000003</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="5">
         <v>0.25564900000000002</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="5">
         <v>0.18016499999999999</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="5">
         <v>0.38119799999999998</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="5">
         <v>0.19742199999999999</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="5">
         <v>0.43844</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="5">
         <v>0.271152</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="5">
         <v>8.6595000000000005E-2</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>7.7384999999999995E-2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>2.2832999999999999E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>5.5428999999999999E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>3.1690999999999997E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>1.9946999999999999E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="6">
         <v>2.6644999999999999E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="6">
         <v>6.5340999999999996E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="6">
         <v>1</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="6">
         <v>4.7564000000000002E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="6">
         <v>-3.2699999999999998E-4</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="6">
         <v>7.5324000000000002E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="6">
         <v>4.2487999999999998E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="6">
         <v>5.4243E-2</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="6">
         <v>4.0475999999999998E-2</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="6">
         <v>5.5805E-2</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="6">
         <v>6.2425000000000001E-2</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="6">
         <v>0.106798</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="6">
         <v>1.5421000000000001E-2</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="6">
         <v>5.4709000000000001E-2</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="6">
         <v>4.07E-2</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="6">
         <v>2.3111E-2</v>
       </c>
     </row>
@@ -1759,135 +2504,135 @@
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <v>0.33513700000000002</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>6.0464999999999998E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>0.28765400000000002</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>0.36444799999999999</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="5">
         <v>2.4292999999999999E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>0.190189</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="5">
         <v>0.178289</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="5">
         <v>4.7564000000000002E-2</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="5">
         <v>1</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="5">
         <v>4.5638999999999999E-2</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="5">
         <v>0.15516199999999999</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="5">
         <v>0.25572499999999998</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="5">
         <v>0.33463599999999999</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="5">
         <v>0.22034400000000001</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="5">
         <v>0.34527000000000002</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="5">
         <v>0.35713299999999998</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="5">
         <v>0.188495</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="5">
         <v>0.120618</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="5">
         <v>0.24824099999999999</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="5">
         <v>0.24714700000000001</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10" s="5">
         <v>6.5979999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>3.7491999999999998E-2</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>1.2057E-2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>4.1931000000000003E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>0.107949</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <v>-4.0289999999999996E-3</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="6">
         <v>3.6017E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="6">
         <v>4.7738000000000003E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="6">
         <v>-3.2699999999999998E-4</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="6">
         <v>4.5638999999999999E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="6">
         <v>1</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="6">
         <v>3.3286000000000003E-2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="6">
         <v>3.2723000000000002E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="6">
         <v>6.1886999999999998E-2</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="6">
         <v>3.7021999999999999E-2</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="6">
         <v>4.9997E-2</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="6">
         <v>7.0291999999999993E-2</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="6">
         <v>1.5800999999999999E-2</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="6">
         <v>2.0596E-2</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="6">
         <v>6.7155999999999993E-2</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="6">
         <v>5.6075E-2</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="6">
         <v>1.5656E-2</v>
       </c>
     </row>
@@ -1895,135 +2640,135 @@
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="5">
         <v>0.19864399999999999</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>7.6324000000000003E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>0.15779599999999999</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>0.175397</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="5">
         <v>2.2551999999999999E-2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>9.1423000000000004E-2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="5">
         <v>0.19334899999999999</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="5">
         <v>7.5324000000000002E-2</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="5">
         <v>0.15516199999999999</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="5">
         <v>3.3286000000000003E-2</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="5">
         <v>1</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="5">
         <v>0.122573</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="5">
         <v>0.191778</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="5">
         <v>0.14618100000000001</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="5">
         <v>0.145539</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="5">
         <v>0.19788600000000001</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="5">
         <v>0.25195099999999998</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="5">
         <v>6.7607E-2</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="5">
         <v>0.19609399999999999</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="5">
         <v>0.145235</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12" s="5">
         <v>6.1638999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>0.25750600000000001</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>4.4777999999999998E-2</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>0.261382</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>0.34871200000000002</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="6">
         <v>2.1197000000000001E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="6">
         <v>0.136848</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="6">
         <v>0.156914</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="6">
         <v>4.2487999999999998E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="6">
         <v>0.25572499999999998</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="6">
         <v>3.2723000000000002E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="6">
         <v>0.122573</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="6">
         <v>1</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="6">
         <v>0.26586599999999999</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="6">
         <v>0.159722</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="6">
         <v>0.24542</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="6">
         <v>0.310699</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="6">
         <v>0.13064000000000001</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="6">
         <v>9.0440000000000006E-2</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="6">
         <v>0.19924</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="6">
         <v>0.21747</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="6">
         <v>5.5188000000000001E-2</v>
       </c>
     </row>
@@ -2031,135 +2776,135 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>0.33041500000000001</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>8.8876999999999998E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>0.32259100000000002</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="5">
         <v>0.42643500000000001</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="5">
         <v>4.3174999999999998E-2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5">
         <v>0.242729</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="5">
         <v>0.25718800000000003</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="5">
         <v>5.4243E-2</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="5">
         <v>0.33463599999999999</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="5">
         <v>6.1886999999999998E-2</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="5">
         <v>0.191778</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="5">
         <v>0.26586599999999999</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="5">
         <v>1</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="5">
         <v>0.25761499999999998</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="5">
         <v>0.36310700000000001</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="5">
         <v>0.40806300000000001</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="5">
         <v>0.23963799999999999</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="5">
         <v>9.0859999999999996E-2</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="5">
         <v>0.31876700000000002</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="5">
         <v>0.28174199999999999</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V14" s="5">
         <v>8.8900999999999994E-2</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="6">
         <v>0.26433299999999998</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="6">
         <v>5.2932E-2</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <v>0.27987000000000001</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="6">
         <v>0.24379999999999999</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="6">
         <v>2.9666000000000001E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="6">
         <v>0.117648</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="6">
         <v>0.25564900000000002</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="6">
         <v>4.0475999999999998E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="6">
         <v>0.22034400000000001</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="6">
         <v>3.7021999999999999E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="6">
         <v>0.14618100000000001</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="6">
         <v>0.159722</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="6">
         <v>0.25761499999999998</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="6">
         <v>1</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="6">
         <v>0.19220899999999999</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="6">
         <v>0.34609200000000001</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="6">
         <v>0.16087499999999999</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="6">
         <v>9.2147999999999994E-2</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="6">
         <v>0.35825699999999999</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="6">
         <v>0.225938</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="6">
         <v>6.7908999999999997E-2</v>
       </c>
     </row>
@@ -2167,135 +2912,135 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>0.30362</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>5.9179000000000002E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>0.264791</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="5">
         <v>0.40111200000000002</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="5">
         <v>2.7911999999999999E-2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>0.22103999999999999</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="5">
         <v>0.18016499999999999</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="5">
         <v>5.5805E-2</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="5">
         <v>0.34527000000000002</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="5">
         <v>4.9997E-2</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="5">
         <v>0.145539</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="5">
         <v>0.24542</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="5">
         <v>0.36310700000000001</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="5">
         <v>0.19220899999999999</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="5">
         <v>1</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="5">
         <v>0.33427899999999999</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="5">
         <v>0.162795</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="5">
         <v>0.10012799999999999</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="5">
         <v>0.22279199999999999</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="5">
         <v>0.23882</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V16" s="5">
         <v>7.6894000000000004E-2</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="6">
         <v>0.40477999999999997</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="6">
         <v>7.4761999999999995E-2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="6">
         <v>0.43276599999999998</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="6">
         <v>0.52540500000000001</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="6">
         <v>3.5902000000000003E-2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="6">
         <v>0.204985</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="6">
         <v>0.38119799999999998</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="6">
         <v>6.2425000000000001E-2</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="6">
         <v>0.35713299999999998</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="6">
         <v>7.0291999999999993E-2</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="6">
         <v>0.19788600000000001</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="6">
         <v>0.310699</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="6">
         <v>0.40806300000000001</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="6">
         <v>0.34609200000000001</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="6">
         <v>0.33427899999999999</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="6">
         <v>1</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="6">
         <v>0.20624899999999999</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="6">
         <v>0.16614599999999999</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="6">
         <v>0.45061800000000002</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="6">
         <v>0.40010200000000001</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="6">
         <v>0.119949</v>
       </c>
     </row>
@@ -2303,135 +3048,135 @@
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="5">
         <v>0.19439600000000001</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="5">
         <v>7.8143000000000004E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <v>0.18465699999999999</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="5">
         <v>0.15931899999999999</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="5">
         <v>6.4965999999999996E-2</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="5">
         <v>9.2287999999999995E-2</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="5">
         <v>0.19742199999999999</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="5">
         <v>0.106798</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="5">
         <v>0.188495</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="5">
         <v>1.5800999999999999E-2</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="5">
         <v>0.25195099999999998</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="5">
         <v>0.13064000000000001</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="5">
         <v>0.23963799999999999</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="5">
         <v>0.16087499999999999</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="5">
         <v>0.162795</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="5">
         <v>0.20624899999999999</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="5">
         <v>1</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="5">
         <v>7.2605000000000003E-2</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18" s="5">
         <v>0.18790499999999999</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18" s="5">
         <v>0.127106</v>
       </c>
-      <c r="V18" s="2">
+      <c r="V18" s="5">
         <v>4.0309999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="6">
         <v>0.13017999999999999</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="6">
         <v>3.4762000000000001E-2</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="6">
         <v>9.6303E-2</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="6">
         <v>0.146347</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="6">
         <v>-5.1900000000000004E-4</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="6">
         <v>4.9126999999999997E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="6">
         <v>1.5421000000000001E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="6">
         <v>0.120618</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="6">
         <v>2.0596E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="6">
         <v>6.7607E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="6">
         <v>9.0440000000000006E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="6">
         <v>9.0859999999999996E-2</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="6">
         <v>9.2147999999999994E-2</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="6">
         <v>0.10012799999999999</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="6">
         <v>0.16614599999999999</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="6">
         <v>7.2605000000000003E-2</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="6">
         <v>1</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="6">
         <v>0.11626300000000001</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="6">
         <v>9.3986E-2</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="6">
         <v>7.1559999999999999E-2</v>
       </c>
     </row>
@@ -2439,217 +3184,222 @@
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <v>0.34223199999999998</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <v>6.9305000000000005E-2</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <v>0.32625700000000002</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="5">
         <v>0.32796700000000001</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="5">
         <v>5.8543999999999999E-2</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="5">
         <v>0.17435</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="5">
         <v>0.43844</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="5">
         <v>5.4709000000000001E-2</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="5">
         <v>0.24824099999999999</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="5">
         <v>6.7155999999999993E-2</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="5">
         <v>0.19609399999999999</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="5">
         <v>0.19924</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="5">
         <v>0.31876700000000002</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="5">
         <v>0.35825699999999999</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="5">
         <v>0.22279199999999999</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="5">
         <v>0.45061800000000002</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="5">
         <v>0.18790499999999999</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="5">
         <v>0.11626300000000001</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="5">
         <v>1</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="5">
         <v>0.34698099999999998</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V20" s="5">
         <v>0.105684</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="6">
         <v>0.310531</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="6">
         <v>5.1236999999999998E-2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="6">
         <v>0.33039499999999999</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="6">
         <v>0.37041499999999999</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="6">
         <v>3.8587999999999997E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="6">
         <v>0.17186599999999999</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="6">
         <v>0.271152</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="6">
         <v>4.07E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="6">
         <v>0.24714700000000001</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="6">
         <v>5.6075E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="6">
         <v>0.145235</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="6">
         <v>0.21747</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="6">
         <v>0.28174199999999999</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="6">
         <v>0.225938</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="6">
         <v>0.23882</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="6">
         <v>0.40010200000000001</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="6">
         <v>0.127106</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="6">
         <v>9.3986E-2</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="6">
         <v>0.34698099999999998</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21" s="6">
         <v>1</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21" s="6">
         <v>7.0099999999999996E-2</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="6">
         <v>0.106239</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="6">
         <v>2.5971000000000001E-2</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="6">
         <v>7.4330999999999994E-2</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="6">
         <v>0.116768</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="6">
         <v>1.3601E-2</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="6">
         <v>4.9905999999999999E-2</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="6">
         <v>8.6595000000000005E-2</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="6">
         <v>2.3111E-2</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="6">
         <v>6.5979999999999997E-2</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="6">
         <v>1.5656E-2</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="6">
         <v>6.1638999999999999E-2</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="6">
         <v>5.5188000000000001E-2</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="6">
         <v>8.8900999999999994E-2</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="6">
         <v>6.7908999999999997E-2</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="6">
         <v>7.6894000000000004E-2</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="6">
         <v>0.119949</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="6">
         <v>4.0309999999999999E-2</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="6">
         <v>7.1559999999999999E-2</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="6">
         <v>0.105684</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="6">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="V22" s="4">
+      <c r="V22" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:V22">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="A1:V22">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="percent" val="51"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:V22">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Correlation Analysis/Correlation Results/departmentCorrelationMatrix.xlsx
+++ b/Correlation Analysis/Correlation Results/departmentCorrelationMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christine\Documents\Instacart Data\Instacart_DataAnalytics\Correlation Analysis\Correlation Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60216C7-1A31-428F-BF3A-1A268C22BC7C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF51181-B4A6-4746-8C99-D5803C1ED951}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8610" windowHeight="2595" xr2:uid="{6EA7DB0A-67A5-45AC-BF9C-57A14492BED4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Frozen</t>
   </si>
@@ -103,21 +103,6 @@
   </si>
   <si>
     <t>DryGoods Pasta</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -212,7 +197,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="121">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2D2D"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -222,6 +221,13 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2D2D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
@@ -231,461 +237,6 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00DA63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF43CEFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF43CEFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00DA63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF43CEFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00DA63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF43CEFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00DA63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF43CEFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00DA63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00DA63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF43CEFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF43CEFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00DA63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00DA63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF43CEFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF43CEFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00DA63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1289,195 +840,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF43CEFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00DA63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF43CEFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00DA63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00DA63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF71"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8633"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1502,12 +864,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{CC33C926-5772-4134-B0D0-9876C3202C75}">
-      <tableStyleElement type="wholeTable" dxfId="120"/>
-      <tableStyleElement type="headerRow" dxfId="119"/>
+      <tableStyleElement type="wholeTable" dxfId="31"/>
+      <tableStyleElement type="headerRow" dxfId="30"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF00D05E"/>
+      <color rgb="FF00B050"/>
+      <color rgb="FFFF2D2D"/>
       <color rgb="FFFF5D5D"/>
       <color rgb="FF00DA63"/>
       <color rgb="FF007FAC"/>
@@ -1515,9 +880,6 @@
       <color rgb="FFCCFF33"/>
       <color rgb="FFFFFF71"/>
       <color rgb="FFFFA953"/>
-      <color rgb="FFFF9933"/>
-      <color rgb="FFFF8633"/>
-      <color rgb="FFFF4B4B"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1532,31 +894,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3E989072-BA4C-4FC3-B11E-526CC7AA200B}" name="Table13" displayName="Table13" ref="A1:V22" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3E989072-BA4C-4FC3-B11E-526CC7AA200B}" name="Table13" displayName="Table13" ref="A1:V22" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:V22" xr:uid="{A1F3F026-2866-4047-AEE5-6B67012A16E9}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{1B1A1D43-B817-45EA-997A-9B416DCD8844}" name="Column1" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{66AA2328-CFBF-47FF-9F5D-C4D0682F397A}" name="Frozen" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{16164917-1943-44B3-87DE-D337E761DBA3}" name="Other" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{C7BAEA8A-61A1-4837-A852-76BE79366056}" name="Bakery" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{935A654C-C0F5-493B-8B50-00D46A4719D0}" name="Produce" dataDxfId="85"/>
-    <tableColumn id="6" xr3:uid="{934C717B-547F-4AC8-BE40-17D6118CDB24}" name="Alcohol" dataDxfId="84"/>
-    <tableColumn id="7" xr3:uid="{CD2C6430-2242-404C-BDC8-32C35416000F}" name="International" dataDxfId="83"/>
-    <tableColumn id="8" xr3:uid="{818D4275-F3F1-4EF5-8CBA-DC46149572FE}" name="Beverages" dataDxfId="82"/>
-    <tableColumn id="9" xr3:uid="{BC4C1CFD-F53D-46A9-BDD7-82929BD80A0C}" name="Pets" dataDxfId="81"/>
-    <tableColumn id="10" xr3:uid="{BCF06846-FBB4-464E-BE62-C6998D3E8AF2}" name="DryGoodsPasta" dataDxfId="80"/>
-    <tableColumn id="11" xr3:uid="{3EBE6CCD-0BC5-4D3C-A6FB-97CA3C805B5F}" name="Bulk" dataDxfId="79"/>
-    <tableColumn id="12" xr3:uid="{D17A7452-1B46-4FF5-8DBB-D529439245A2}" name="PersonalCare" dataDxfId="78"/>
-    <tableColumn id="13" xr3:uid="{2E90C497-BCD3-4791-BE2E-564749A0F760}" name="MeatSeafood" dataDxfId="77"/>
-    <tableColumn id="14" xr3:uid="{872354A5-E84E-4C26-B521-298B967A5EA7}" name="Pantry" dataDxfId="76"/>
-    <tableColumn id="15" xr3:uid="{F8CC5500-A108-4FF4-8CB7-241A7EE57AA7}" name="Breakfast" dataDxfId="75"/>
-    <tableColumn id="16" xr3:uid="{2DB870D9-4BD9-4DDF-89A9-B8998589B82A}" name="CannedGoods" dataDxfId="74"/>
-    <tableColumn id="17" xr3:uid="{B2C94CB7-A567-433D-8D48-D838FDAFB83F}" name="DairyEggs" dataDxfId="73"/>
-    <tableColumn id="18" xr3:uid="{E31D36C2-F8EC-4E28-ADB4-90342050DA59}" name="HouseHold" dataDxfId="72"/>
-    <tableColumn id="19" xr3:uid="{78668B53-0DFF-4FF6-B5E6-DDC86D863182}" name="Babies" dataDxfId="71"/>
-    <tableColumn id="20" xr3:uid="{DA48D088-469D-471D-BB5D-4E7CB9D0AE10}" name="Snacks" dataDxfId="70"/>
-    <tableColumn id="21" xr3:uid="{98467B8E-B111-43C9-8A0E-86F452BE4616}" name="Deli" dataDxfId="69"/>
-    <tableColumn id="22" xr3:uid="{E8D01234-5441-4FF5-95E9-4921765C962A}" name="Missing" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{1B1A1D43-B817-45EA-997A-9B416DCD8844}" name="Column1" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{66AA2328-CFBF-47FF-9F5D-C4D0682F397A}" name="Frozen" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{16164917-1943-44B3-87DE-D337E761DBA3}" name="Other" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{C7BAEA8A-61A1-4837-A852-76BE79366056}" name="Bakery" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{935A654C-C0F5-493B-8B50-00D46A4719D0}" name="Produce" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{934C717B-547F-4AC8-BE40-17D6118CDB24}" name="Alcohol" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{CD2C6430-2242-404C-BDC8-32C35416000F}" name="International" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{818D4275-F3F1-4EF5-8CBA-DC46149572FE}" name="Beverages" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{BC4C1CFD-F53D-46A9-BDD7-82929BD80A0C}" name="Pets" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{BCF06846-FBB4-464E-BE62-C6998D3E8AF2}" name="DryGoodsPasta" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{3EBE6CCD-0BC5-4D3C-A6FB-97CA3C805B5F}" name="Bulk" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{D17A7452-1B46-4FF5-8DBB-D529439245A2}" name="PersonalCare" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{2E90C497-BCD3-4791-BE2E-564749A0F760}" name="MeatSeafood" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{872354A5-E84E-4C26-B521-298B967A5EA7}" name="Pantry" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{F8CC5500-A108-4FF4-8CB7-241A7EE57AA7}" name="Breakfast" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{2DB870D9-4BD9-4DDF-89A9-B8998589B82A}" name="CannedGoods" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{B2C94CB7-A567-433D-8D48-D838FDAFB83F}" name="DairyEggs" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{E31D36C2-F8EC-4E28-ADB4-90342050DA59}" name="HouseHold" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{78668B53-0DFF-4FF6-B5E6-DDC86D863182}" name="Babies" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{DA48D088-469D-471D-BB5D-4E7CB9D0AE10}" name="Snacks" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{98467B8E-B111-43C9-8A0E-86F452BE4616}" name="Deli" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{E8D01234-5441-4FF5-95E9-4921765C962A}" name="Missing" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1861,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E74CE9D-9438-4311-805C-C9680E247DE4}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3386,7 +2748,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:V22">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3398,8 +2760,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:V22">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0.5254</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Correlation Analysis/Correlation Results/departmentCorrelationMatrix.xlsx
+++ b/Correlation Analysis/Correlation Results/departmentCorrelationMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christine\Documents\Instacart Data\Instacart_DataAnalytics\Correlation Analysis\Correlation Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF51181-B4A6-4746-8C99-D5803C1ED951}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06477E9C-9E3E-4E76-B4B0-AFB6E90C18D4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8610" windowHeight="2595" xr2:uid="{6EA7DB0A-67A5-45AC-BF9C-57A14492BED4}"/>
   </bookViews>
@@ -170,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -193,53 +193,17 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF2D2D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF2D2D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <b val="0"/>
@@ -840,6 +804,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2D2D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -864,8 +849,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{CC33C926-5772-4134-B0D0-9876C3202C75}">
-      <tableStyleElement type="wholeTable" dxfId="31"/>
-      <tableStyleElement type="headerRow" dxfId="30"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -894,31 +879,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3E989072-BA4C-4FC3-B11E-526CC7AA200B}" name="Table13" displayName="Table13" ref="A1:V22" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3E989072-BA4C-4FC3-B11E-526CC7AA200B}" name="Table13" displayName="Table13" ref="A1:V22" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:V22" xr:uid="{A1F3F026-2866-4047-AEE5-6B67012A16E9}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{1B1A1D43-B817-45EA-997A-9B416DCD8844}" name="Column1" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{66AA2328-CFBF-47FF-9F5D-C4D0682F397A}" name="Frozen" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{16164917-1943-44B3-87DE-D337E761DBA3}" name="Other" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{C7BAEA8A-61A1-4837-A852-76BE79366056}" name="Bakery" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{935A654C-C0F5-493B-8B50-00D46A4719D0}" name="Produce" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{934C717B-547F-4AC8-BE40-17D6118CDB24}" name="Alcohol" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{CD2C6430-2242-404C-BDC8-32C35416000F}" name="International" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{818D4275-F3F1-4EF5-8CBA-DC46149572FE}" name="Beverages" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{BC4C1CFD-F53D-46A9-BDD7-82929BD80A0C}" name="Pets" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{BCF06846-FBB4-464E-BE62-C6998D3E8AF2}" name="DryGoodsPasta" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{3EBE6CCD-0BC5-4D3C-A6FB-97CA3C805B5F}" name="Bulk" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{D17A7452-1B46-4FF5-8DBB-D529439245A2}" name="PersonalCare" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{2E90C497-BCD3-4791-BE2E-564749A0F760}" name="MeatSeafood" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{872354A5-E84E-4C26-B521-298B967A5EA7}" name="Pantry" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{F8CC5500-A108-4FF4-8CB7-241A7EE57AA7}" name="Breakfast" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{2DB870D9-4BD9-4DDF-89A9-B8998589B82A}" name="CannedGoods" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{B2C94CB7-A567-433D-8D48-D838FDAFB83F}" name="DairyEggs" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{E31D36C2-F8EC-4E28-ADB4-90342050DA59}" name="HouseHold" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{78668B53-0DFF-4FF6-B5E6-DDC86D863182}" name="Babies" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{DA48D088-469D-471D-BB5D-4E7CB9D0AE10}" name="Snacks" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{98467B8E-B111-43C9-8A0E-86F452BE4616}" name="Deli" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{E8D01234-5441-4FF5-95E9-4921765C962A}" name="Missing" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{1B1A1D43-B817-45EA-997A-9B416DCD8844}" name="Column1" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{66AA2328-CFBF-47FF-9F5D-C4D0682F397A}" name="Frozen" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{16164917-1943-44B3-87DE-D337E761DBA3}" name="Other" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{C7BAEA8A-61A1-4837-A852-76BE79366056}" name="Bakery" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{935A654C-C0F5-493B-8B50-00D46A4719D0}" name="Produce" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{934C717B-547F-4AC8-BE40-17D6118CDB24}" name="Alcohol" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{CD2C6430-2242-404C-BDC8-32C35416000F}" name="International" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{818D4275-F3F1-4EF5-8CBA-DC46149572FE}" name="Beverages" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{BC4C1CFD-F53D-46A9-BDD7-82929BD80A0C}" name="Pets" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{BCF06846-FBB4-464E-BE62-C6998D3E8AF2}" name="DryGoodsPasta" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{3EBE6CCD-0BC5-4D3C-A6FB-97CA3C805B5F}" name="Bulk" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{D17A7452-1B46-4FF5-8DBB-D529439245A2}" name="PersonalCare" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{2E90C497-BCD3-4791-BE2E-564749A0F760}" name="MeatSeafood" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{872354A5-E84E-4C26-B521-298B967A5EA7}" name="Pantry" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{F8CC5500-A108-4FF4-8CB7-241A7EE57AA7}" name="Breakfast" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{2DB870D9-4BD9-4DDF-89A9-B8998589B82A}" name="CannedGoods" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{B2C94CB7-A567-433D-8D48-D838FDAFB83F}" name="DairyEggs" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{E31D36C2-F8EC-4E28-ADB4-90342050DA59}" name="HouseHold" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{78668B53-0DFF-4FF6-B5E6-DDC86D863182}" name="Babies" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{DA48D088-469D-471D-BB5D-4E7CB9D0AE10}" name="Snacks" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{98467B8E-B111-43C9-8A0E-86F452BE4616}" name="Deli" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{E8D01234-5441-4FF5-95E9-4921765C962A}" name="Missing" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1223,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E74CE9D-9438-4311-805C-C9680E247DE4}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1556,7 @@
       <c r="P5" s="6">
         <v>0.40111200000000002</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="8">
         <v>0.52540500000000001</v>
       </c>
       <c r="R5" s="6">
@@ -1621,7 +1606,7 @@
       <c r="J6" s="5">
         <v>2.4292999999999999E-2</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="9">
         <v>-4.0289999999999996E-3</v>
       </c>
       <c r="L6" s="5">
@@ -1825,7 +1810,7 @@
       <c r="J9" s="6">
         <v>4.7564000000000002E-2</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="8">
         <v>-3.2699999999999998E-4</v>
       </c>
       <c r="L9" s="6">
@@ -1946,7 +1931,7 @@
       <c r="E11" s="6">
         <v>0.107949</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="8">
         <v>-4.0289999999999996E-3</v>
       </c>
       <c r="G11" s="6">
@@ -1955,7 +1940,7 @@
       <c r="H11" s="6">
         <v>4.7738000000000003E-2</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="8">
         <v>-3.2699999999999998E-4</v>
       </c>
       <c r="J11" s="6">
@@ -2008,8 +1993,8 @@
       <c r="C12" s="5">
         <v>7.6324000000000003E-2</v>
       </c>
-      <c r="D12" s="5">
-        <v>0.15779599999999999</v>
+      <c r="D12" s="6">
+        <v>4.1931000000000003E-2</v>
       </c>
       <c r="E12" s="5">
         <v>0.175397</v>
@@ -2351,7 +2336,7 @@
       <c r="D17" s="6">
         <v>0.43276599999999998</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="8">
         <v>0.52540500000000001</v>
       </c>
       <c r="F17" s="6">
@@ -2490,7 +2475,7 @@
       <c r="E19" s="6">
         <v>0.146347</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="8">
         <v>-5.1900000000000004E-4</v>
       </c>
       <c r="G19" s="6">
@@ -2760,15 +2745,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:V22">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>0.5254</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Correlation Analysis/Correlation Results/departmentCorrelationMatrix.xlsx
+++ b/Correlation Analysis/Correlation Results/departmentCorrelationMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christine\Documents\Instacart Data\Instacart_DataAnalytics\Correlation Analysis\Correlation Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06477E9C-9E3E-4E76-B4B0-AFB6E90C18D4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C08FC9-03F2-4888-93AA-9B18297B5F04}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8610" windowHeight="2595" xr2:uid="{6EA7DB0A-67A5-45AC-BF9C-57A14492BED4}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Frozen</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>Bakery</t>
@@ -75,9 +72,6 @@
     <t>DairyEggs</t>
   </si>
   <si>
-    <t>HouseHold</t>
-  </si>
-  <si>
     <t>Babies</t>
   </si>
   <si>
@@ -93,16 +87,10 @@
     <t>Column1</t>
   </si>
   <si>
-    <t>Meat Seafood</t>
-  </si>
-  <si>
     <t>Household</t>
   </si>
   <si>
-    <t>Personal Care</t>
-  </si>
-  <si>
-    <t>DryGoods Pasta</t>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -170,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -190,20 +178,39 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2D2D"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -751,6 +758,76 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2D2D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2D2D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2D2D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -801,28 +878,29 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF2D2D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -849,8 +927,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{CC33C926-5772-4134-B0D0-9876C3202C75}">
-      <tableStyleElement type="wholeTable" dxfId="28"/>
-      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="wholeTable" dxfId="39"/>
+      <tableStyleElement type="headerRow" dxfId="38"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -879,31 +957,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3E989072-BA4C-4FC3-B11E-526CC7AA200B}" name="Table13" displayName="Table13" ref="A1:V22" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:V22" xr:uid="{A1F3F026-2866-4047-AEE5-6B67012A16E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4B97720-FCF3-4EDB-A81F-F25947499263}" name="Table1" displayName="Table1" ref="A1:V22" totalsRowShown="0" headerRowDxfId="35" dataDxfId="36">
+  <autoFilter ref="A1:V22" xr:uid="{B48AB231-5AEF-498B-A53B-0C6C200867E3}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{1B1A1D43-B817-45EA-997A-9B416DCD8844}" name="Column1" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{66AA2328-CFBF-47FF-9F5D-C4D0682F397A}" name="Frozen" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{16164917-1943-44B3-87DE-D337E761DBA3}" name="Other" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{C7BAEA8A-61A1-4837-A852-76BE79366056}" name="Bakery" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{935A654C-C0F5-493B-8B50-00D46A4719D0}" name="Produce" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{934C717B-547F-4AC8-BE40-17D6118CDB24}" name="Alcohol" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{CD2C6430-2242-404C-BDC8-32C35416000F}" name="International" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{818D4275-F3F1-4EF5-8CBA-DC46149572FE}" name="Beverages" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{BC4C1CFD-F53D-46A9-BDD7-82929BD80A0C}" name="Pets" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{BCF06846-FBB4-464E-BE62-C6998D3E8AF2}" name="DryGoodsPasta" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{3EBE6CCD-0BC5-4D3C-A6FB-97CA3C805B5F}" name="Bulk" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{D17A7452-1B46-4FF5-8DBB-D529439245A2}" name="PersonalCare" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{2E90C497-BCD3-4791-BE2E-564749A0F760}" name="MeatSeafood" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{872354A5-E84E-4C26-B521-298B967A5EA7}" name="Pantry" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{F8CC5500-A108-4FF4-8CB7-241A7EE57AA7}" name="Breakfast" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{2DB870D9-4BD9-4DDF-89A9-B8998589B82A}" name="CannedGoods" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{B2C94CB7-A567-433D-8D48-D838FDAFB83F}" name="DairyEggs" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{E31D36C2-F8EC-4E28-ADB4-90342050DA59}" name="HouseHold" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{78668B53-0DFF-4FF6-B5E6-DDC86D863182}" name="Babies" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{DA48D088-469D-471D-BB5D-4E7CB9D0AE10}" name="Snacks" dataDxfId="2"/>
-    <tableColumn id="21" xr3:uid="{98467B8E-B111-43C9-8A0E-86F452BE4616}" name="Deli" dataDxfId="1"/>
-    <tableColumn id="22" xr3:uid="{E8D01234-5441-4FF5-95E9-4921765C962A}" name="Missing" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FC1885EE-CA27-4638-9E33-D6169B32E096}" name="Column1" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{2614783B-A731-4317-8EFD-9F65EC772DD7}" name="Frozen" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{F08ABB2C-8DA5-47F7-A164-4A05A2AC3260}" name="Others" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{2EB41906-9BE2-4A66-9A4E-7A311956AB55}" name="Bakery" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{F1C157A7-994E-4B77-9FC6-44C1B5FCAF4A}" name="Produce" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{7BB2EBF6-B555-4F15-A462-9B5E9A4086B2}" name="Alcohol" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{C1DE5890-7769-4667-8220-3755CB442C64}" name="International" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{C5D18042-C512-404D-844D-B79253CC0C65}" name="Beverages" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{9E85945F-85A0-4518-BFCF-D421638E1E8E}" name="Pets" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{29F48BB2-8FE0-4E84-B6A5-F8A15B5225EF}" name="DryGoodsPasta" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{D629B0EB-FAE5-49D2-A8F7-E24DB031056D}" name="Bulk" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{C49EC739-C076-4025-952B-C0D0220E0A47}" name="PersonalCare" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{D4DF185E-21E5-4827-99F4-34381995108D}" name="MeatSeafood" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{EDEF6F6E-CC56-4C99-A6B0-E3A8A83B2F9E}" name="Pantry" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{517E7BD3-B333-4FDC-98CC-84A696E28B9A}" name="Breakfast" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{F6932835-B875-42C5-828C-018F7F2B6C5D}" name="CannedGoods" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{D0E6E8E6-5C0C-43A0-8DBB-7B793159E0FE}" name="DairyEggs" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{F31C092E-A4CA-45D4-9D38-3F1FABFF19A6}" name="Household" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{C3F810E3-F94B-461C-A71B-4CC0A742E11C}" name="Babies" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{EF76F9E2-866D-4E1A-9F16-B59C08C6720B}" name="Snacks" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{C08BDAAF-F2BE-4119-A33D-74B803A30C8C}" name="Deli" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{B95E8AC2-4526-47A6-A308-CB6E85440C26}" name="Missing" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1209,7 +1287,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,77 +1308,79 @@
     <col min="16" max="16" width="15.42578125" style="3" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" style="3" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" style="3" customWidth="1"/>
-    <col min="19" max="21" width="9.140625" style="3"/>
+    <col min="19" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="9.28515625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="3"/>
     <col min="22" max="22" width="9.85546875" style="3" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -1311,1429 +1391,1432 @@
         <v>1</v>
       </c>
       <c r="C2" s="5">
-        <v>7.4144000000000002E-2</v>
+        <v>6.8479999999999999E-2</v>
       </c>
       <c r="D2" s="5">
-        <v>0.32791799999999999</v>
+        <v>0.32499400000000001</v>
       </c>
       <c r="E2" s="5">
-        <v>0.356321</v>
+        <v>0.359738</v>
       </c>
       <c r="F2" s="5">
-        <v>2.8143999999999999E-2</v>
+        <v>2.6353000000000001E-2</v>
       </c>
       <c r="G2" s="5">
-        <v>0.18463199999999999</v>
+        <v>0.18459100000000001</v>
       </c>
       <c r="H2" s="5">
-        <v>0.27467399999999997</v>
+        <v>0.27365600000000001</v>
       </c>
       <c r="I2" s="5">
-        <v>7.7384999999999995E-2</v>
+        <v>7.6129000000000002E-2</v>
       </c>
       <c r="J2" s="5">
-        <v>0.33513700000000002</v>
+        <v>0.32892500000000002</v>
       </c>
       <c r="K2" s="5">
-        <v>3.7491999999999998E-2</v>
+        <v>4.0390000000000002E-2</v>
       </c>
       <c r="L2" s="5">
-        <v>0.19864399999999999</v>
+        <v>0.19750899999999999</v>
       </c>
       <c r="M2" s="5">
-        <v>0.25750600000000001</v>
+        <v>0.25769199999999998</v>
       </c>
       <c r="N2" s="5">
-        <v>0.33041500000000001</v>
+        <v>0.32975199999999999</v>
       </c>
       <c r="O2" s="5">
-        <v>0.26433299999999998</v>
+        <v>0.256409</v>
       </c>
       <c r="P2" s="5">
-        <v>0.30362</v>
+        <v>0.30454500000000001</v>
       </c>
       <c r="Q2" s="5">
-        <v>0.40477999999999997</v>
+        <v>0.40193099999999998</v>
       </c>
       <c r="R2" s="5">
-        <v>0.19439600000000001</v>
+        <v>0.19950699999999999</v>
       </c>
       <c r="S2" s="5">
-        <v>0.13017999999999999</v>
+        <v>0.124977</v>
       </c>
       <c r="T2" s="5">
-        <v>0.34223199999999998</v>
+        <v>0.34013900000000002</v>
       </c>
       <c r="U2" s="5">
-        <v>0.310531</v>
+        <v>0.31129499999999999</v>
       </c>
       <c r="V2" s="5">
-        <v>0.106239</v>
+        <v>0.106194</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6">
-        <v>7.4144000000000002E-2</v>
+        <v>6.8479999999999999E-2</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="6">
-        <v>6.8456000000000003E-2</v>
+        <v>6.1395999999999999E-2</v>
       </c>
       <c r="E3" s="6">
-        <v>8.1087999999999993E-2</v>
+        <v>7.2283E-2</v>
       </c>
       <c r="F3" s="6">
-        <v>6.5293000000000004E-2</v>
+        <v>5.3773000000000001E-2</v>
       </c>
       <c r="G3" s="6">
-        <v>3.8628000000000003E-2</v>
+        <v>3.9262999999999999E-2</v>
       </c>
       <c r="H3" s="6">
-        <v>6.6780999999999993E-2</v>
+        <v>6.1315000000000001E-2</v>
       </c>
       <c r="I3" s="6">
-        <v>2.2832999999999999E-2</v>
+        <v>1.9198E-2</v>
       </c>
       <c r="J3" s="6">
-        <v>6.0464999999999998E-2</v>
+        <v>5.7629E-2</v>
       </c>
       <c r="K3" s="6">
-        <v>1.2057E-2</v>
+        <v>1.26E-2</v>
       </c>
       <c r="L3" s="6">
-        <v>7.6324000000000003E-2</v>
+        <v>6.9836999999999996E-2</v>
       </c>
       <c r="M3" s="6">
-        <v>4.4777999999999998E-2</v>
+        <v>4.3414000000000001E-2</v>
       </c>
       <c r="N3" s="6">
-        <v>8.8876999999999998E-2</v>
+        <v>7.8298000000000006E-2</v>
       </c>
       <c r="O3" s="6">
-        <v>5.2932E-2</v>
+        <v>4.6482000000000002E-2</v>
       </c>
       <c r="P3" s="6">
-        <v>5.9179000000000002E-2</v>
+        <v>5.7412999999999999E-2</v>
       </c>
       <c r="Q3" s="6">
-        <v>7.4761999999999995E-2</v>
+        <v>7.0043999999999995E-2</v>
       </c>
       <c r="R3" s="6">
-        <v>7.8143000000000004E-2</v>
+        <v>6.9414000000000003E-2</v>
       </c>
       <c r="S3" s="6">
-        <v>3.4762000000000001E-2</v>
+        <v>3.2466000000000002E-2</v>
       </c>
       <c r="T3" s="6">
-        <v>6.9305000000000005E-2</v>
+        <v>6.8107000000000001E-2</v>
       </c>
       <c r="U3" s="6">
-        <v>5.1236999999999998E-2</v>
+        <v>4.8924000000000002E-2</v>
       </c>
       <c r="V3" s="6">
-        <v>2.5971000000000001E-2</v>
+        <v>2.7668999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.32791799999999999</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.32499400000000001</v>
       </c>
       <c r="C4" s="5">
-        <v>6.8456000000000003E-2</v>
+        <v>6.1395999999999999E-2</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>0.357348</v>
+        <v>0.35685699999999998</v>
       </c>
       <c r="F4" s="5">
-        <v>5.4536000000000001E-2</v>
+        <v>4.7746999999999998E-2</v>
       </c>
       <c r="G4" s="5">
-        <v>0.163496</v>
+        <v>0.16755200000000001</v>
       </c>
       <c r="H4" s="5">
-        <v>0.26096000000000003</v>
+        <v>0.26904699999999998</v>
       </c>
       <c r="I4" s="5">
-        <v>5.5428999999999999E-2</v>
+        <v>5.6425999999999997E-2</v>
       </c>
       <c r="J4" s="5">
-        <v>0.28765400000000002</v>
+        <v>0.284445</v>
       </c>
       <c r="K4" s="5">
-        <v>4.1931000000000003E-2</v>
+        <v>4.3875999999999998E-2</v>
       </c>
       <c r="L4" s="5">
-        <v>0.15779599999999999</v>
+        <v>0.16020100000000001</v>
       </c>
       <c r="M4" s="5">
-        <v>0.261382</v>
+        <v>0.262214</v>
       </c>
       <c r="N4" s="5">
-        <v>0.32259100000000002</v>
+        <v>0.32151600000000002</v>
       </c>
       <c r="O4" s="5">
-        <v>0.27987000000000001</v>
+        <v>0.27694099999999999</v>
       </c>
       <c r="P4" s="5">
-        <v>0.264791</v>
+        <v>0.25966800000000001</v>
       </c>
       <c r="Q4" s="5">
-        <v>0.43276599999999998</v>
+        <v>0.43385899999999999</v>
       </c>
       <c r="R4" s="5">
-        <v>0.18465699999999999</v>
+        <v>0.18650900000000001</v>
       </c>
       <c r="S4" s="5">
-        <v>9.6303E-2</v>
+        <v>9.3743999999999994E-2</v>
       </c>
       <c r="T4" s="5">
-        <v>0.32625700000000002</v>
+        <v>0.33003399999999999</v>
       </c>
       <c r="U4" s="5">
-        <v>0.33039499999999999</v>
+        <v>0.33203700000000003</v>
       </c>
       <c r="V4" s="5">
-        <v>7.4330999999999994E-2</v>
+        <v>7.2956999999999994E-2</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.356321</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.359738</v>
       </c>
       <c r="C5" s="6">
-        <v>8.1087999999999993E-2</v>
+        <v>7.2283E-2</v>
       </c>
       <c r="D5" s="6">
-        <v>0.357348</v>
+        <v>0.35685699999999998</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>5.3569999999999998E-3</v>
+        <v>5.1710000000000002E-3</v>
       </c>
       <c r="G5" s="6">
-        <v>0.24801500000000001</v>
+        <v>0.25071100000000002</v>
       </c>
       <c r="H5" s="6">
-        <v>0.260934</v>
+        <v>0.26531199999999999</v>
       </c>
       <c r="I5" s="6">
-        <v>3.1690999999999997E-2</v>
+        <v>3.0033000000000001E-2</v>
       </c>
       <c r="J5" s="6">
-        <v>0.36444799999999999</v>
+        <v>0.36684800000000001</v>
       </c>
       <c r="K5" s="6">
-        <v>0.107949</v>
+        <v>0.10841000000000001</v>
       </c>
       <c r="L5" s="6">
-        <v>0.175397</v>
+        <v>0.17533099999999999</v>
       </c>
       <c r="M5" s="6">
-        <v>0.34871200000000002</v>
+        <v>0.35007700000000003</v>
       </c>
       <c r="N5" s="6">
-        <v>0.42643500000000001</v>
+        <v>0.427674</v>
       </c>
       <c r="O5" s="6">
-        <v>0.24379999999999999</v>
+        <v>0.24335999999999999</v>
       </c>
       <c r="P5" s="6">
-        <v>0.40111200000000002</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>0.52540500000000001</v>
+        <v>0.399617</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0.52761199999999997</v>
       </c>
       <c r="R5" s="6">
-        <v>0.15931899999999999</v>
+        <v>0.15774299999999999</v>
       </c>
       <c r="S5" s="6">
-        <v>0.146347</v>
+        <v>0.145119</v>
       </c>
       <c r="T5" s="6">
-        <v>0.32796700000000001</v>
+        <v>0.33149000000000001</v>
       </c>
       <c r="U5" s="6">
-        <v>0.37041499999999999</v>
+        <v>0.37313000000000002</v>
       </c>
       <c r="V5" s="6">
-        <v>0.116768</v>
+        <v>0.119029</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="5">
-        <v>2.8143999999999999E-2</v>
+        <v>2.6353000000000001E-2</v>
       </c>
       <c r="C6" s="5">
-        <v>6.5293000000000004E-2</v>
+        <v>5.3773000000000001E-2</v>
       </c>
       <c r="D6" s="5">
-        <v>5.4536000000000001E-2</v>
+        <v>4.7746999999999998E-2</v>
       </c>
       <c r="E6" s="5">
-        <v>5.3569999999999998E-3</v>
+        <v>5.1710000000000002E-3</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="5">
-        <v>1.3044E-2</v>
+        <v>1.3261999999999999E-2</v>
       </c>
       <c r="H6" s="5">
-        <v>7.3425000000000004E-2</v>
+        <v>6.2274000000000003E-2</v>
       </c>
       <c r="I6" s="5">
-        <v>1.9946999999999999E-2</v>
+        <v>1.9074000000000001E-2</v>
       </c>
       <c r="J6" s="5">
-        <v>2.4292999999999999E-2</v>
-      </c>
-      <c r="K6" s="9">
-        <v>-4.0289999999999996E-3</v>
+        <v>2.4927999999999999E-2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>-4.3689999999999996E-3</v>
       </c>
       <c r="L6" s="5">
-        <v>2.2551999999999999E-2</v>
+        <v>2.3156E-2</v>
       </c>
       <c r="M6" s="5">
-        <v>2.1197000000000001E-2</v>
+        <v>2.1595E-2</v>
       </c>
       <c r="N6" s="5">
-        <v>4.3174999999999998E-2</v>
+        <v>4.095E-2</v>
       </c>
       <c r="O6" s="5">
-        <v>2.9666000000000001E-2</v>
+        <v>2.2515E-2</v>
       </c>
       <c r="P6" s="5">
-        <v>2.7911999999999999E-2</v>
+        <v>2.4778000000000001E-2</v>
       </c>
       <c r="Q6" s="5">
-        <v>3.5902000000000003E-2</v>
+        <v>3.1209000000000001E-2</v>
       </c>
       <c r="R6" s="5">
-        <v>6.4965999999999996E-2</v>
+        <v>5.4982999999999997E-2</v>
       </c>
       <c r="S6" s="5">
-        <v>-5.1900000000000004E-4</v>
+        <v>-2.0500000000000002E-3</v>
       </c>
       <c r="T6" s="5">
-        <v>5.8543999999999999E-2</v>
+        <v>4.8419999999999998E-2</v>
       </c>
       <c r="U6" s="5">
-        <v>3.8587999999999997E-2</v>
+        <v>3.4312000000000002E-2</v>
       </c>
       <c r="V6" s="5">
-        <v>1.3601E-2</v>
+        <v>5.4640000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="6">
-        <v>0.18463199999999999</v>
+        <v>0.18459100000000001</v>
       </c>
       <c r="C7" s="6">
-        <v>3.8628000000000003E-2</v>
+        <v>3.9262999999999999E-2</v>
       </c>
       <c r="D7" s="6">
-        <v>0.163496</v>
+        <v>0.16755200000000001</v>
       </c>
       <c r="E7" s="6">
-        <v>0.24801500000000001</v>
+        <v>0.25071100000000002</v>
       </c>
       <c r="F7" s="6">
-        <v>1.3044E-2</v>
+        <v>1.3261999999999999E-2</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="6">
-        <v>0.128335</v>
+        <v>0.13006100000000001</v>
       </c>
       <c r="I7" s="6">
-        <v>2.6644999999999999E-2</v>
+        <v>2.9531000000000002E-2</v>
       </c>
       <c r="J7" s="6">
-        <v>0.190189</v>
+        <v>0.198273</v>
       </c>
       <c r="K7" s="6">
-        <v>3.6017E-2</v>
+        <v>3.5904999999999999E-2</v>
       </c>
       <c r="L7" s="6">
-        <v>9.1423000000000004E-2</v>
+        <v>9.5626000000000003E-2</v>
       </c>
       <c r="M7" s="6">
-        <v>0.136848</v>
+        <v>0.14086699999999999</v>
       </c>
       <c r="N7" s="6">
-        <v>0.242729</v>
+        <v>0.24743299999999999</v>
       </c>
       <c r="O7" s="6">
-        <v>0.117648</v>
+        <v>0.124002</v>
       </c>
       <c r="P7" s="6">
-        <v>0.22103999999999999</v>
+        <v>0.22470699999999999</v>
       </c>
       <c r="Q7" s="6">
-        <v>0.204985</v>
+        <v>0.20608599999999999</v>
       </c>
       <c r="R7" s="6">
-        <v>9.2287999999999995E-2</v>
+        <v>9.4400999999999999E-2</v>
       </c>
       <c r="S7" s="6">
-        <v>4.9126999999999997E-2</v>
+        <v>4.6227999999999998E-2</v>
       </c>
       <c r="T7" s="6">
-        <v>0.17435</v>
+        <v>0.17397199999999999</v>
       </c>
       <c r="U7" s="6">
-        <v>0.17186599999999999</v>
+        <v>0.17539099999999999</v>
       </c>
       <c r="V7" s="6">
-        <v>4.9905999999999999E-2</v>
+        <v>5.0278000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5">
-        <v>0.27467399999999997</v>
+        <v>0.27365600000000001</v>
       </c>
       <c r="C8" s="5">
-        <v>6.6780999999999993E-2</v>
+        <v>6.1315000000000001E-2</v>
       </c>
       <c r="D8" s="5">
-        <v>0.26096000000000003</v>
+        <v>0.26904699999999998</v>
       </c>
       <c r="E8" s="5">
-        <v>0.260934</v>
+        <v>0.26531199999999999</v>
       </c>
       <c r="F8" s="5">
-        <v>7.3425000000000004E-2</v>
+        <v>6.2274000000000003E-2</v>
       </c>
       <c r="G8" s="5">
-        <v>0.128335</v>
+        <v>0.13006100000000001</v>
       </c>
       <c r="H8" s="5">
         <v>1</v>
       </c>
       <c r="I8" s="5">
-        <v>6.5340999999999996E-2</v>
+        <v>6.1765E-2</v>
       </c>
       <c r="J8" s="5">
-        <v>0.178289</v>
+        <v>0.18462899999999999</v>
       </c>
       <c r="K8" s="5">
-        <v>4.7738000000000003E-2</v>
+        <v>4.5835000000000001E-2</v>
       </c>
       <c r="L8" s="5">
-        <v>0.19334899999999999</v>
+        <v>0.19072700000000001</v>
       </c>
       <c r="M8" s="5">
-        <v>0.156914</v>
+        <v>0.162411</v>
       </c>
       <c r="N8" s="5">
-        <v>0.25718800000000003</v>
+        <v>0.25797900000000001</v>
       </c>
       <c r="O8" s="5">
-        <v>0.25564900000000002</v>
+        <v>0.25464999999999999</v>
       </c>
       <c r="P8" s="5">
-        <v>0.18016499999999999</v>
+        <v>0.181034</v>
       </c>
       <c r="Q8" s="5">
-        <v>0.38119799999999998</v>
+        <v>0.38291900000000001</v>
       </c>
       <c r="R8" s="5">
-        <v>0.19742199999999999</v>
+        <v>0.20632300000000001</v>
       </c>
       <c r="S8" s="5">
-        <v>7.4999999999999997E-2</v>
+        <v>7.3205000000000006E-2</v>
       </c>
       <c r="T8" s="5">
-        <v>0.43844</v>
+        <v>0.43585299999999999</v>
       </c>
       <c r="U8" s="5">
-        <v>0.271152</v>
+        <v>0.27604000000000001</v>
       </c>
       <c r="V8" s="5">
-        <v>8.6595000000000005E-2</v>
+        <v>8.7750999999999996E-2</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="6">
-        <v>7.7384999999999995E-2</v>
+        <v>7.6129000000000002E-2</v>
       </c>
       <c r="C9" s="6">
-        <v>2.2832999999999999E-2</v>
+        <v>1.9198E-2</v>
       </c>
       <c r="D9" s="6">
-        <v>5.5428999999999999E-2</v>
+        <v>5.6425999999999997E-2</v>
       </c>
       <c r="E9" s="6">
-        <v>3.1690999999999997E-2</v>
+        <v>3.0033000000000001E-2</v>
       </c>
       <c r="F9" s="6">
-        <v>1.9946999999999999E-2</v>
+        <v>1.9074000000000001E-2</v>
       </c>
       <c r="G9" s="6">
-        <v>2.6644999999999999E-2</v>
+        <v>2.9531000000000002E-2</v>
       </c>
       <c r="H9" s="6">
-        <v>6.5340999999999996E-2</v>
+        <v>6.1765E-2</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
       </c>
       <c r="J9" s="6">
-        <v>4.7564000000000002E-2</v>
-      </c>
-      <c r="K9" s="8">
-        <v>-3.2699999999999998E-4</v>
+        <v>4.7536000000000002E-2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>-1.253E-3</v>
       </c>
       <c r="L9" s="6">
-        <v>7.5324000000000002E-2</v>
+        <v>6.6835000000000006E-2</v>
       </c>
       <c r="M9" s="6">
-        <v>4.2487999999999998E-2</v>
+        <v>4.1103000000000001E-2</v>
       </c>
       <c r="N9" s="6">
-        <v>5.4243E-2</v>
+        <v>5.5981999999999997E-2</v>
       </c>
       <c r="O9" s="6">
-        <v>4.0475999999999998E-2</v>
+        <v>4.0293000000000002E-2</v>
       </c>
       <c r="P9" s="6">
-        <v>5.5805E-2</v>
+        <v>5.5111E-2</v>
       </c>
       <c r="Q9" s="6">
-        <v>6.2425000000000001E-2</v>
+        <v>5.5964E-2</v>
       </c>
       <c r="R9" s="6">
-        <v>0.106798</v>
+        <v>9.8679000000000003E-2</v>
       </c>
       <c r="S9" s="6">
-        <v>1.5421000000000001E-2</v>
+        <v>9.3240000000000007E-3</v>
       </c>
       <c r="T9" s="6">
-        <v>5.4709000000000001E-2</v>
+        <v>4.9477E-2</v>
       </c>
       <c r="U9" s="6">
-        <v>4.07E-2</v>
+        <v>3.9618E-2</v>
       </c>
       <c r="V9" s="6">
-        <v>2.3111E-2</v>
+        <v>1.9370999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5">
-        <v>0.33513700000000002</v>
+        <v>0.32892500000000002</v>
       </c>
       <c r="C10" s="5">
-        <v>6.0464999999999998E-2</v>
+        <v>5.7629E-2</v>
       </c>
       <c r="D10" s="5">
-        <v>0.28765400000000002</v>
+        <v>0.284445</v>
       </c>
       <c r="E10" s="5">
-        <v>0.36444799999999999</v>
+        <v>0.36684800000000001</v>
       </c>
       <c r="F10" s="5">
-        <v>2.4292999999999999E-2</v>
+        <v>2.4927999999999999E-2</v>
       </c>
       <c r="G10" s="5">
-        <v>0.190189</v>
+        <v>0.198273</v>
       </c>
       <c r="H10" s="5">
-        <v>0.178289</v>
+        <v>0.18462899999999999</v>
       </c>
       <c r="I10" s="5">
-        <v>4.7564000000000002E-2</v>
+        <v>4.7536000000000002E-2</v>
       </c>
       <c r="J10" s="5">
         <v>1</v>
       </c>
       <c r="K10" s="5">
-        <v>4.5638999999999999E-2</v>
+        <v>4.6149999999999997E-2</v>
       </c>
       <c r="L10" s="5">
-        <v>0.15516199999999999</v>
+        <v>0.157279</v>
       </c>
       <c r="M10" s="5">
-        <v>0.25572499999999998</v>
+        <v>0.25517800000000002</v>
       </c>
       <c r="N10" s="5">
-        <v>0.33463599999999999</v>
+        <v>0.33400299999999999</v>
       </c>
       <c r="O10" s="5">
-        <v>0.22034400000000001</v>
+        <v>0.21826100000000001</v>
       </c>
       <c r="P10" s="5">
-        <v>0.34527000000000002</v>
+        <v>0.34350599999999998</v>
       </c>
       <c r="Q10" s="5">
-        <v>0.35713299999999998</v>
+        <v>0.355771</v>
       </c>
       <c r="R10" s="5">
-        <v>0.188495</v>
+        <v>0.18255099999999999</v>
       </c>
       <c r="S10" s="5">
-        <v>0.120618</v>
+        <v>0.114513</v>
       </c>
       <c r="T10" s="5">
-        <v>0.24824099999999999</v>
+        <v>0.24871199999999999</v>
       </c>
       <c r="U10" s="5">
-        <v>0.24714700000000001</v>
+        <v>0.24695500000000001</v>
       </c>
       <c r="V10" s="5">
-        <v>6.5979999999999997E-2</v>
+        <v>6.8919999999999995E-2</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6">
-        <v>3.7491999999999998E-2</v>
+        <v>4.0390000000000002E-2</v>
       </c>
       <c r="C11" s="6">
-        <v>1.2057E-2</v>
+        <v>1.26E-2</v>
       </c>
       <c r="D11" s="6">
-        <v>4.1931000000000003E-2</v>
+        <v>4.3875999999999998E-2</v>
       </c>
       <c r="E11" s="6">
-        <v>0.107949</v>
-      </c>
-      <c r="F11" s="8">
-        <v>-4.0289999999999996E-3</v>
+        <v>0.10841000000000001</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-4.3689999999999996E-3</v>
       </c>
       <c r="G11" s="6">
-        <v>3.6017E-2</v>
+        <v>3.5904999999999999E-2</v>
       </c>
       <c r="H11" s="6">
-        <v>4.7738000000000003E-2</v>
-      </c>
-      <c r="I11" s="8">
-        <v>-3.2699999999999998E-4</v>
+        <v>4.5835000000000001E-2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>-1.253E-3</v>
       </c>
       <c r="J11" s="6">
-        <v>4.5638999999999999E-2</v>
+        <v>4.6149999999999997E-2</v>
       </c>
       <c r="K11" s="6">
         <v>1</v>
       </c>
       <c r="L11" s="6">
-        <v>3.3286000000000003E-2</v>
+        <v>2.7451E-2</v>
       </c>
       <c r="M11" s="6">
-        <v>3.2723000000000002E-2</v>
+        <v>3.4625999999999997E-2</v>
       </c>
       <c r="N11" s="6">
-        <v>6.1886999999999998E-2</v>
+        <v>6.4724000000000004E-2</v>
       </c>
       <c r="O11" s="6">
-        <v>3.7021999999999999E-2</v>
+        <v>3.8448000000000003E-2</v>
       </c>
       <c r="P11" s="6">
-        <v>4.9997E-2</v>
+        <v>5.3455000000000003E-2</v>
       </c>
       <c r="Q11" s="6">
-        <v>7.0291999999999993E-2</v>
+        <v>7.2147000000000003E-2</v>
       </c>
       <c r="R11" s="6">
-        <v>1.5800999999999999E-2</v>
+        <v>1.3788999999999999E-2</v>
       </c>
       <c r="S11" s="6">
-        <v>2.0596E-2</v>
+        <v>1.7679E-2</v>
       </c>
       <c r="T11" s="6">
-        <v>6.7155999999999993E-2</v>
+        <v>6.8723000000000006E-2</v>
       </c>
       <c r="U11" s="6">
-        <v>5.6075E-2</v>
+        <v>5.7410999999999997E-2</v>
       </c>
       <c r="V11" s="6">
-        <v>1.5656E-2</v>
+        <v>1.7332E-2</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5">
-        <v>0.19864399999999999</v>
+        <v>0.19750899999999999</v>
       </c>
       <c r="C12" s="5">
-        <v>7.6324000000000003E-2</v>
-      </c>
-      <c r="D12" s="6">
-        <v>4.1931000000000003E-2</v>
+        <v>6.9836999999999996E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.16020100000000001</v>
       </c>
       <c r="E12" s="5">
-        <v>0.175397</v>
+        <v>0.17533099999999999</v>
       </c>
       <c r="F12" s="5">
-        <v>2.2551999999999999E-2</v>
+        <v>2.3156E-2</v>
       </c>
       <c r="G12" s="5">
-        <v>9.1423000000000004E-2</v>
+        <v>9.5626000000000003E-2</v>
       </c>
       <c r="H12" s="5">
-        <v>0.19334899999999999</v>
+        <v>0.19072700000000001</v>
       </c>
       <c r="I12" s="5">
-        <v>7.5324000000000002E-2</v>
+        <v>6.6835000000000006E-2</v>
       </c>
       <c r="J12" s="5">
-        <v>0.15516199999999999</v>
+        <v>0.157279</v>
       </c>
       <c r="K12" s="5">
-        <v>3.3286000000000003E-2</v>
+        <v>2.7451E-2</v>
       </c>
       <c r="L12" s="5">
         <v>1</v>
       </c>
       <c r="M12" s="5">
-        <v>0.122573</v>
+        <v>0.12071</v>
       </c>
       <c r="N12" s="5">
-        <v>0.191778</v>
+        <v>0.19884199999999999</v>
       </c>
       <c r="O12" s="5">
-        <v>0.14618100000000001</v>
+        <v>0.14724499999999999</v>
       </c>
       <c r="P12" s="5">
-        <v>0.145539</v>
+        <v>0.149703</v>
       </c>
       <c r="Q12" s="5">
-        <v>0.19788600000000001</v>
+        <v>0.19837299999999999</v>
       </c>
       <c r="R12" s="5">
-        <v>0.25195099999999998</v>
+        <v>0.250413</v>
       </c>
       <c r="S12" s="5">
-        <v>6.7607E-2</v>
+        <v>6.8793000000000007E-2</v>
       </c>
       <c r="T12" s="5">
-        <v>0.19609399999999999</v>
+        <v>0.19331599999999999</v>
       </c>
       <c r="U12" s="5">
-        <v>0.145235</v>
+        <v>0.14319999999999999</v>
       </c>
       <c r="V12" s="5">
-        <v>6.1638999999999999E-2</v>
+        <v>5.8261E-2</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6">
-        <v>0.25750600000000001</v>
+        <v>0.25769199999999998</v>
       </c>
       <c r="C13" s="6">
-        <v>4.4777999999999998E-2</v>
+        <v>4.3414000000000001E-2</v>
       </c>
       <c r="D13" s="6">
-        <v>0.261382</v>
+        <v>0.262214</v>
       </c>
       <c r="E13" s="6">
-        <v>0.34871200000000002</v>
+        <v>0.35007700000000003</v>
       </c>
       <c r="F13" s="6">
-        <v>2.1197000000000001E-2</v>
+        <v>2.1595E-2</v>
       </c>
       <c r="G13" s="6">
-        <v>0.136848</v>
+        <v>0.14086699999999999</v>
       </c>
       <c r="H13" s="6">
-        <v>0.156914</v>
+        <v>0.162411</v>
       </c>
       <c r="I13" s="6">
-        <v>4.2487999999999998E-2</v>
+        <v>4.1103000000000001E-2</v>
       </c>
       <c r="J13" s="6">
-        <v>0.25572499999999998</v>
+        <v>0.25517800000000002</v>
       </c>
       <c r="K13" s="6">
-        <v>3.2723000000000002E-2</v>
+        <v>3.4625999999999997E-2</v>
       </c>
       <c r="L13" s="6">
-        <v>0.122573</v>
+        <v>0.12071</v>
       </c>
       <c r="M13" s="6">
         <v>1</v>
       </c>
       <c r="N13" s="6">
-        <v>0.26586599999999999</v>
+        <v>0.26665499999999998</v>
       </c>
       <c r="O13" s="6">
-        <v>0.159722</v>
+        <v>0.15823000000000001</v>
       </c>
       <c r="P13" s="6">
-        <v>0.24542</v>
+        <v>0.24524199999999999</v>
       </c>
       <c r="Q13" s="6">
-        <v>0.310699</v>
+        <v>0.31252000000000002</v>
       </c>
       <c r="R13" s="6">
-        <v>0.13064000000000001</v>
+        <v>0.132409</v>
       </c>
       <c r="S13" s="6">
-        <v>9.0440000000000006E-2</v>
+        <v>8.7411000000000003E-2</v>
       </c>
       <c r="T13" s="6">
-        <v>0.19924</v>
+        <v>0.20054</v>
       </c>
       <c r="U13" s="6">
-        <v>0.21747</v>
+        <v>0.21557999999999999</v>
       </c>
       <c r="V13" s="6">
-        <v>5.5188000000000001E-2</v>
+        <v>5.8605999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="5">
-        <v>0.33041500000000001</v>
+        <v>0.32975199999999999</v>
       </c>
       <c r="C14" s="5">
-        <v>8.8876999999999998E-2</v>
+        <v>7.8298000000000006E-2</v>
       </c>
       <c r="D14" s="5">
-        <v>0.32259100000000002</v>
+        <v>0.32151600000000002</v>
       </c>
       <c r="E14" s="5">
-        <v>0.42643500000000001</v>
+        <v>0.427674</v>
       </c>
       <c r="F14" s="5">
-        <v>4.3174999999999998E-2</v>
+        <v>4.095E-2</v>
       </c>
       <c r="G14" s="5">
-        <v>0.242729</v>
+        <v>0.24743299999999999</v>
       </c>
       <c r="H14" s="5">
-        <v>0.25718800000000003</v>
+        <v>0.25797900000000001</v>
       </c>
       <c r="I14" s="5">
-        <v>5.4243E-2</v>
+        <v>5.5981999999999997E-2</v>
       </c>
       <c r="J14" s="5">
-        <v>0.33463599999999999</v>
+        <v>0.33400299999999999</v>
       </c>
       <c r="K14" s="5">
-        <v>6.1886999999999998E-2</v>
+        <v>6.4724000000000004E-2</v>
       </c>
       <c r="L14" s="5">
-        <v>0.191778</v>
+        <v>0.19884199999999999</v>
       </c>
       <c r="M14" s="5">
-        <v>0.26586599999999999</v>
+        <v>0.26665499999999998</v>
       </c>
       <c r="N14" s="5">
         <v>1</v>
       </c>
       <c r="O14" s="5">
-        <v>0.25761499999999998</v>
+        <v>0.25269200000000003</v>
       </c>
       <c r="P14" s="5">
-        <v>0.36310700000000001</v>
+        <v>0.36434800000000001</v>
       </c>
       <c r="Q14" s="5">
-        <v>0.40806300000000001</v>
+        <v>0.40906500000000001</v>
       </c>
       <c r="R14" s="5">
-        <v>0.23963799999999999</v>
+        <v>0.239786</v>
       </c>
       <c r="S14" s="5">
-        <v>9.0859999999999996E-2</v>
+        <v>8.9218000000000006E-2</v>
       </c>
       <c r="T14" s="5">
-        <v>0.31876700000000002</v>
+        <v>0.31565700000000002</v>
       </c>
       <c r="U14" s="5">
-        <v>0.28174199999999999</v>
+        <v>0.27779599999999999</v>
       </c>
       <c r="V14" s="5">
-        <v>8.8900999999999994E-2</v>
+        <v>9.1877E-2</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6">
-        <v>0.26433299999999998</v>
+        <v>0.256409</v>
       </c>
       <c r="C15" s="6">
-        <v>5.2932E-2</v>
+        <v>4.6482000000000002E-2</v>
       </c>
       <c r="D15" s="6">
-        <v>0.27987000000000001</v>
+        <v>0.27694099999999999</v>
       </c>
       <c r="E15" s="6">
-        <v>0.24379999999999999</v>
+        <v>0.24335999999999999</v>
       </c>
       <c r="F15" s="6">
-        <v>2.9666000000000001E-2</v>
+        <v>2.2515E-2</v>
       </c>
       <c r="G15" s="6">
-        <v>0.117648</v>
+        <v>0.124002</v>
       </c>
       <c r="H15" s="6">
-        <v>0.25564900000000002</v>
+        <v>0.25464999999999999</v>
       </c>
       <c r="I15" s="6">
-        <v>4.0475999999999998E-2</v>
+        <v>4.0293000000000002E-2</v>
       </c>
       <c r="J15" s="6">
-        <v>0.22034400000000001</v>
+        <v>0.21826100000000001</v>
       </c>
       <c r="K15" s="6">
-        <v>3.7021999999999999E-2</v>
+        <v>3.8448000000000003E-2</v>
       </c>
       <c r="L15" s="6">
-        <v>0.14618100000000001</v>
+        <v>0.14724499999999999</v>
       </c>
       <c r="M15" s="6">
-        <v>0.159722</v>
+        <v>0.15823000000000001</v>
       </c>
       <c r="N15" s="6">
-        <v>0.25761499999999998</v>
+        <v>0.25269200000000003</v>
       </c>
       <c r="O15" s="6">
         <v>1</v>
       </c>
       <c r="P15" s="6">
-        <v>0.19220899999999999</v>
+        <v>0.18881400000000001</v>
       </c>
       <c r="Q15" s="6">
-        <v>0.34609200000000001</v>
+        <v>0.35427500000000001</v>
       </c>
       <c r="R15" s="6">
-        <v>0.16087499999999999</v>
+        <v>0.16880200000000001</v>
       </c>
       <c r="S15" s="6">
-        <v>9.2147999999999994E-2</v>
+        <v>8.6961999999999998E-2</v>
       </c>
       <c r="T15" s="6">
-        <v>0.35825699999999999</v>
+        <v>0.35822300000000001</v>
       </c>
       <c r="U15" s="6">
-        <v>0.225938</v>
+        <v>0.22517000000000001</v>
       </c>
       <c r="V15" s="6">
-        <v>6.7908999999999997E-2</v>
+        <v>6.7780999999999994E-2</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="5">
-        <v>0.30362</v>
+        <v>0.30454500000000001</v>
       </c>
       <c r="C16" s="5">
-        <v>5.9179000000000002E-2</v>
+        <v>5.7412999999999999E-2</v>
       </c>
       <c r="D16" s="5">
-        <v>0.264791</v>
+        <v>0.25966800000000001</v>
       </c>
       <c r="E16" s="5">
-        <v>0.40111200000000002</v>
+        <v>0.399617</v>
       </c>
       <c r="F16" s="5">
-        <v>2.7911999999999999E-2</v>
+        <v>2.4778000000000001E-2</v>
       </c>
       <c r="G16" s="5">
-        <v>0.22103999999999999</v>
+        <v>0.22470699999999999</v>
       </c>
       <c r="H16" s="5">
-        <v>0.18016499999999999</v>
+        <v>0.181034</v>
       </c>
       <c r="I16" s="5">
-        <v>5.5805E-2</v>
+        <v>5.5111E-2</v>
       </c>
       <c r="J16" s="5">
-        <v>0.34527000000000002</v>
+        <v>0.34350599999999998</v>
       </c>
       <c r="K16" s="5">
-        <v>4.9997E-2</v>
+        <v>5.3455000000000003E-2</v>
       </c>
       <c r="L16" s="5">
-        <v>0.145539</v>
+        <v>0.149703</v>
       </c>
       <c r="M16" s="5">
-        <v>0.24542</v>
+        <v>0.24524199999999999</v>
       </c>
       <c r="N16" s="5">
-        <v>0.36310700000000001</v>
+        <v>0.36434800000000001</v>
       </c>
       <c r="O16" s="5">
-        <v>0.19220899999999999</v>
+        <v>0.18881400000000001</v>
       </c>
       <c r="P16" s="5">
         <v>1</v>
       </c>
       <c r="Q16" s="5">
-        <v>0.33427899999999999</v>
+        <v>0.33280300000000002</v>
       </c>
       <c r="R16" s="5">
-        <v>0.162795</v>
+        <v>0.16020000000000001</v>
       </c>
       <c r="S16" s="5">
-        <v>0.10012799999999999</v>
+        <v>9.6505999999999995E-2</v>
       </c>
       <c r="T16" s="5">
-        <v>0.22279199999999999</v>
+        <v>0.22155</v>
       </c>
       <c r="U16" s="5">
-        <v>0.23882</v>
+        <v>0.23599100000000001</v>
       </c>
       <c r="V16" s="5">
-        <v>7.6894000000000004E-2</v>
+        <v>8.0160999999999996E-2</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6">
-        <v>0.40477999999999997</v>
+        <v>0.40193099999999998</v>
       </c>
       <c r="C17" s="6">
-        <v>7.4761999999999995E-2</v>
+        <v>7.0043999999999995E-2</v>
       </c>
       <c r="D17" s="6">
-        <v>0.43276599999999998</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0.52540500000000001</v>
+        <v>0.43385899999999999</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.52761199999999997</v>
       </c>
       <c r="F17" s="6">
-        <v>3.5902000000000003E-2</v>
+        <v>3.1209000000000001E-2</v>
       </c>
       <c r="G17" s="6">
-        <v>0.204985</v>
+        <v>0.20608599999999999</v>
       </c>
       <c r="H17" s="6">
-        <v>0.38119799999999998</v>
+        <v>0.38291900000000001</v>
       </c>
       <c r="I17" s="6">
-        <v>6.2425000000000001E-2</v>
+        <v>5.5964E-2</v>
       </c>
       <c r="J17" s="6">
-        <v>0.35713299999999998</v>
+        <v>0.355771</v>
       </c>
       <c r="K17" s="6">
-        <v>7.0291999999999993E-2</v>
+        <v>7.2147000000000003E-2</v>
       </c>
       <c r="L17" s="6">
-        <v>0.19788600000000001</v>
+        <v>0.19837299999999999</v>
       </c>
       <c r="M17" s="6">
-        <v>0.310699</v>
+        <v>0.31252000000000002</v>
       </c>
       <c r="N17" s="6">
-        <v>0.40806300000000001</v>
+        <v>0.40906500000000001</v>
       </c>
       <c r="O17" s="6">
-        <v>0.34609200000000001</v>
+        <v>0.35427500000000001</v>
       </c>
       <c r="P17" s="6">
-        <v>0.33427899999999999</v>
+        <v>0.33280300000000002</v>
       </c>
       <c r="Q17" s="6">
         <v>1</v>
       </c>
       <c r="R17" s="6">
-        <v>0.20624899999999999</v>
+        <v>0.20641300000000001</v>
       </c>
       <c r="S17" s="6">
-        <v>0.16614599999999999</v>
+        <v>0.158857</v>
       </c>
       <c r="T17" s="6">
-        <v>0.45061800000000002</v>
+        <v>0.44963500000000001</v>
       </c>
       <c r="U17" s="6">
-        <v>0.40010200000000001</v>
+        <v>0.40504200000000001</v>
       </c>
       <c r="V17" s="6">
-        <v>0.119949</v>
+        <v>0.118771</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5">
-        <v>0.19439600000000001</v>
+        <v>0.19950699999999999</v>
       </c>
       <c r="C18" s="5">
-        <v>7.8143000000000004E-2</v>
+        <v>6.9414000000000003E-2</v>
       </c>
       <c r="D18" s="5">
-        <v>0.18465699999999999</v>
+        <v>0.18650900000000001</v>
       </c>
       <c r="E18" s="5">
-        <v>0.15931899999999999</v>
+        <v>0.15774299999999999</v>
       </c>
       <c r="F18" s="5">
-        <v>6.4965999999999996E-2</v>
+        <v>5.4982999999999997E-2</v>
       </c>
       <c r="G18" s="5">
-        <v>9.2287999999999995E-2</v>
+        <v>9.4400999999999999E-2</v>
       </c>
       <c r="H18" s="5">
-        <v>0.19742199999999999</v>
+        <v>0.20632300000000001</v>
       </c>
       <c r="I18" s="5">
-        <v>0.106798</v>
+        <v>9.8679000000000003E-2</v>
       </c>
       <c r="J18" s="5">
-        <v>0.188495</v>
+        <v>0.18255099999999999</v>
       </c>
       <c r="K18" s="5">
-        <v>1.5800999999999999E-2</v>
+        <v>1.3788999999999999E-2</v>
       </c>
       <c r="L18" s="5">
-        <v>0.25195099999999998</v>
+        <v>0.250413</v>
       </c>
       <c r="M18" s="5">
-        <v>0.13064000000000001</v>
+        <v>0.132409</v>
       </c>
       <c r="N18" s="5">
-        <v>0.23963799999999999</v>
+        <v>0.239786</v>
       </c>
       <c r="O18" s="5">
-        <v>0.16087499999999999</v>
+        <v>0.16880200000000001</v>
       </c>
       <c r="P18" s="5">
-        <v>0.162795</v>
+        <v>0.16020000000000001</v>
       </c>
       <c r="Q18" s="5">
-        <v>0.20624899999999999</v>
+        <v>0.20641300000000001</v>
       </c>
       <c r="R18" s="5">
         <v>1</v>
       </c>
       <c r="S18" s="5">
-        <v>7.2605000000000003E-2</v>
+        <v>7.1038000000000004E-2</v>
       </c>
       <c r="T18" s="5">
-        <v>0.18790499999999999</v>
+        <v>0.191693</v>
       </c>
       <c r="U18" s="5">
-        <v>0.127106</v>
+        <v>0.130638</v>
       </c>
       <c r="V18" s="5">
-        <v>4.0309999999999999E-2</v>
+        <v>4.0049000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="6">
-        <v>0.13017999999999999</v>
+        <v>0.124977</v>
       </c>
       <c r="C19" s="6">
-        <v>3.4762000000000001E-2</v>
+        <v>3.2466000000000002E-2</v>
       </c>
       <c r="D19" s="6">
-        <v>9.6303E-2</v>
+        <v>9.3743999999999994E-2</v>
       </c>
       <c r="E19" s="6">
-        <v>0.146347</v>
-      </c>
-      <c r="F19" s="8">
-        <v>-5.1900000000000004E-4</v>
+        <v>0.145119</v>
+      </c>
+      <c r="F19" s="6">
+        <v>-2.0500000000000002E-3</v>
       </c>
       <c r="G19" s="6">
-        <v>4.9126999999999997E-2</v>
+        <v>4.6227999999999998E-2</v>
       </c>
       <c r="H19" s="6">
-        <v>7.4999999999999997E-2</v>
+        <v>7.3205000000000006E-2</v>
       </c>
       <c r="I19" s="6">
-        <v>1.5421000000000001E-2</v>
+        <v>9.3240000000000007E-3</v>
       </c>
       <c r="J19" s="6">
-        <v>0.120618</v>
+        <v>0.114513</v>
       </c>
       <c r="K19" s="6">
-        <v>2.0596E-2</v>
+        <v>1.7679E-2</v>
       </c>
       <c r="L19" s="6">
-        <v>6.7607E-2</v>
+        <v>6.8793000000000007E-2</v>
       </c>
       <c r="M19" s="6">
-        <v>9.0440000000000006E-2</v>
+        <v>8.7411000000000003E-2</v>
       </c>
       <c r="N19" s="6">
-        <v>9.0859999999999996E-2</v>
+        <v>8.9218000000000006E-2</v>
       </c>
       <c r="O19" s="6">
-        <v>9.2147999999999994E-2</v>
+        <v>8.6961999999999998E-2</v>
       </c>
       <c r="P19" s="6">
-        <v>0.10012799999999999</v>
+        <v>9.6505999999999995E-2</v>
       </c>
       <c r="Q19" s="6">
-        <v>0.16614599999999999</v>
+        <v>0.158857</v>
       </c>
       <c r="R19" s="6">
-        <v>7.2605000000000003E-2</v>
+        <v>7.1038000000000004E-2</v>
       </c>
       <c r="S19" s="6">
         <v>1</v>
       </c>
       <c r="T19" s="6">
-        <v>0.11626300000000001</v>
+        <v>0.111737</v>
       </c>
       <c r="U19" s="6">
-        <v>9.3986E-2</v>
+        <v>9.1410000000000005E-2</v>
       </c>
       <c r="V19" s="6">
-        <v>7.1559999999999999E-2</v>
+        <v>7.5022000000000005E-2</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="5">
-        <v>0.34223199999999998</v>
+        <v>0.34013900000000002</v>
       </c>
       <c r="C20" s="5">
-        <v>6.9305000000000005E-2</v>
+        <v>6.8107000000000001E-2</v>
       </c>
       <c r="D20" s="5">
-        <v>0.32625700000000002</v>
+        <v>0.33003399999999999</v>
       </c>
       <c r="E20" s="5">
-        <v>0.32796700000000001</v>
+        <v>0.33149000000000001</v>
       </c>
       <c r="F20" s="5">
-        <v>5.8543999999999999E-2</v>
+        <v>4.8419999999999998E-2</v>
       </c>
       <c r="G20" s="5">
-        <v>0.17435</v>
+        <v>0.17397199999999999</v>
       </c>
       <c r="H20" s="5">
-        <v>0.43844</v>
+        <v>0.43585299999999999</v>
       </c>
       <c r="I20" s="5">
-        <v>5.4709000000000001E-2</v>
+        <v>4.9477E-2</v>
       </c>
       <c r="J20" s="5">
-        <v>0.24824099999999999</v>
+        <v>0.24871199999999999</v>
       </c>
       <c r="K20" s="5">
-        <v>6.7155999999999993E-2</v>
+        <v>6.8723000000000006E-2</v>
       </c>
       <c r="L20" s="5">
-        <v>0.19609399999999999</v>
+        <v>0.19331599999999999</v>
       </c>
       <c r="M20" s="5">
-        <v>0.19924</v>
+        <v>0.20054</v>
       </c>
       <c r="N20" s="5">
-        <v>0.31876700000000002</v>
+        <v>0.31565700000000002</v>
       </c>
       <c r="O20" s="5">
-        <v>0.35825699999999999</v>
+        <v>0.35822300000000001</v>
       </c>
       <c r="P20" s="5">
-        <v>0.22279199999999999</v>
+        <v>0.22155</v>
       </c>
       <c r="Q20" s="5">
-        <v>0.45061800000000002</v>
+        <v>0.44963500000000001</v>
       </c>
       <c r="R20" s="5">
-        <v>0.18790499999999999</v>
+        <v>0.191693</v>
       </c>
       <c r="S20" s="5">
-        <v>0.11626300000000001</v>
+        <v>0.111737</v>
       </c>
       <c r="T20" s="5">
         <v>1</v>
       </c>
       <c r="U20" s="5">
-        <v>0.34698099999999998</v>
+        <v>0.35140700000000002</v>
       </c>
       <c r="V20" s="5">
-        <v>0.105684</v>
+        <v>0.10645</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="6">
-        <v>0.310531</v>
+        <v>0.31129499999999999</v>
       </c>
       <c r="C21" s="6">
-        <v>5.1236999999999998E-2</v>
+        <v>4.8924000000000002E-2</v>
       </c>
       <c r="D21" s="6">
-        <v>0.33039499999999999</v>
+        <v>0.33203700000000003</v>
       </c>
       <c r="E21" s="6">
-        <v>0.37041499999999999</v>
+        <v>0.37313000000000002</v>
       </c>
       <c r="F21" s="6">
-        <v>3.8587999999999997E-2</v>
+        <v>3.4312000000000002E-2</v>
       </c>
       <c r="G21" s="6">
-        <v>0.17186599999999999</v>
+        <v>0.17539099999999999</v>
       </c>
       <c r="H21" s="6">
-        <v>0.271152</v>
+        <v>0.27604000000000001</v>
       </c>
       <c r="I21" s="6">
-        <v>4.07E-2</v>
+        <v>3.9618E-2</v>
       </c>
       <c r="J21" s="6">
-        <v>0.24714700000000001</v>
+        <v>0.24695500000000001</v>
       </c>
       <c r="K21" s="6">
-        <v>5.6075E-2</v>
+        <v>5.7410999999999997E-2</v>
       </c>
       <c r="L21" s="6">
-        <v>0.145235</v>
+        <v>0.14319999999999999</v>
       </c>
       <c r="M21" s="6">
-        <v>0.21747</v>
+        <v>0.21557999999999999</v>
       </c>
       <c r="N21" s="6">
-        <v>0.28174199999999999</v>
+        <v>0.27779599999999999</v>
       </c>
       <c r="O21" s="6">
-        <v>0.225938</v>
+        <v>0.22517000000000001</v>
       </c>
       <c r="P21" s="6">
-        <v>0.23882</v>
+        <v>0.23599100000000001</v>
       </c>
       <c r="Q21" s="6">
-        <v>0.40010200000000001</v>
+        <v>0.40504200000000001</v>
       </c>
       <c r="R21" s="6">
-        <v>0.127106</v>
+        <v>0.130638</v>
       </c>
       <c r="S21" s="6">
-        <v>9.3986E-2</v>
+        <v>9.1410000000000005E-2</v>
       </c>
       <c r="T21" s="6">
-        <v>0.34698099999999998</v>
+        <v>0.35140700000000002</v>
       </c>
       <c r="U21" s="6">
         <v>1</v>
       </c>
       <c r="V21" s="6">
-        <v>7.0099999999999996E-2</v>
+        <v>7.2559999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="6">
-        <v>0.106239</v>
+        <v>0.106194</v>
       </c>
       <c r="C22" s="6">
-        <v>2.5971000000000001E-2</v>
+        <v>2.7668999999999999E-2</v>
       </c>
       <c r="D22" s="6">
-        <v>7.4330999999999994E-2</v>
+        <v>7.2956999999999994E-2</v>
       </c>
       <c r="E22" s="6">
-        <v>0.116768</v>
+        <v>0.119029</v>
       </c>
       <c r="F22" s="6">
-        <v>1.3601E-2</v>
+        <v>5.4640000000000001E-3</v>
       </c>
       <c r="G22" s="6">
-        <v>4.9905999999999999E-2</v>
+        <v>5.0278000000000003E-2</v>
       </c>
       <c r="H22" s="6">
-        <v>8.6595000000000005E-2</v>
+        <v>8.7750999999999996E-2</v>
       </c>
       <c r="I22" s="6">
-        <v>2.3111E-2</v>
+        <v>1.9370999999999999E-2</v>
       </c>
       <c r="J22" s="6">
-        <v>6.5979999999999997E-2</v>
+        <v>6.8919999999999995E-2</v>
       </c>
       <c r="K22" s="6">
-        <v>1.5656E-2</v>
+        <v>1.7332E-2</v>
       </c>
       <c r="L22" s="6">
-        <v>6.1638999999999999E-2</v>
+        <v>5.8261E-2</v>
       </c>
       <c r="M22" s="6">
-        <v>5.5188000000000001E-2</v>
+        <v>5.8605999999999998E-2</v>
       </c>
       <c r="N22" s="6">
-        <v>8.8900999999999994E-2</v>
+        <v>9.1877E-2</v>
       </c>
       <c r="O22" s="6">
-        <v>6.7908999999999997E-2</v>
+        <v>6.7780999999999994E-2</v>
       </c>
       <c r="P22" s="6">
-        <v>7.6894000000000004E-2</v>
+        <v>8.0160999999999996E-2</v>
       </c>
       <c r="Q22" s="6">
-        <v>0.119949</v>
+        <v>0.118771</v>
       </c>
       <c r="R22" s="6">
-        <v>4.0309999999999999E-2</v>
+        <v>4.0049000000000001E-2</v>
       </c>
       <c r="S22" s="6">
-        <v>7.1559999999999999E-2</v>
+        <v>7.5022000000000005E-2</v>
       </c>
       <c r="T22" s="6">
-        <v>0.105684</v>
+        <v>0.10645</v>
       </c>
       <c r="U22" s="6">
-        <v>7.0099999999999996E-2</v>
+        <v>7.2559999999999999E-2</v>
       </c>
       <c r="V22" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:V22">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="B2:V22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2744,19 +2827,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:V22">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
-      <formula>0.5254</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Correlation Analysis/Correlation Results/departmentCorrelationMatrix.xlsx
+++ b/Correlation Analysis/Correlation Results/departmentCorrelationMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christine\Documents\Instacart Data\Instacart_DataAnalytics\Correlation Analysis\Correlation Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C08FC9-03F2-4888-93AA-9B18297B5F04}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E8B6D5-47D3-4919-8557-4B3209CA0C0D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8610" windowHeight="2595" xr2:uid="{6EA7DB0A-67A5-45AC-BF9C-57A14492BED4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Frozen</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>DryGoods Pasta</t>
+  </si>
+  <si>
+    <t>Canned Goods</t>
+  </si>
+  <si>
+    <t>Personal Care</t>
+  </si>
+  <si>
+    <t>Meat Seafood</t>
   </si>
 </sst>
 </file>
@@ -182,7 +194,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="29">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -193,7 +205,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF5B5B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -201,13 +213,6 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF2D2D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -733,6 +738,31 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -758,74 +788,29 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF2D2D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF2D2D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF2D2D"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -854,56 +839,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -927,12 +862,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{CC33C926-5772-4134-B0D0-9876C3202C75}">
-      <tableStyleElement type="wholeTable" dxfId="39"/>
-      <tableStyleElement type="headerRow" dxfId="38"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFF5B5B"/>
       <color rgb="FF00D05E"/>
       <color rgb="FF00B050"/>
       <color rgb="FFFF2D2D"/>
@@ -942,7 +878,6 @@
       <color rgb="FF43CEFF"/>
       <color rgb="FFCCFF33"/>
       <color rgb="FFFFFF71"/>
-      <color rgb="FFFFA953"/>
     </mruColors>
   </colors>
   <extLst>
@@ -957,31 +892,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4B97720-FCF3-4EDB-A81F-F25947499263}" name="Table1" displayName="Table1" ref="A1:V22" totalsRowShown="0" headerRowDxfId="35" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4B97720-FCF3-4EDB-A81F-F25947499263}" name="Table1" displayName="Table1" ref="A1:V22" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:V22" xr:uid="{B48AB231-5AEF-498B-A53B-0C6C200867E3}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{FC1885EE-CA27-4638-9E33-D6169B32E096}" name="Column1" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{FC1885EE-CA27-4638-9E33-D6169B32E096}" name="Column1" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{2614783B-A731-4317-8EFD-9F65EC772DD7}" name="Frozen" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{F08ABB2C-8DA5-47F7-A164-4A05A2AC3260}" name="Others" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{2EB41906-9BE2-4A66-9A4E-7A311956AB55}" name="Bakery" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{F1C157A7-994E-4B77-9FC6-44C1B5FCAF4A}" name="Produce" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{7BB2EBF6-B555-4F15-A462-9B5E9A4086B2}" name="Alcohol" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{C1DE5890-7769-4667-8220-3755CB442C64}" name="International" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{C5D18042-C512-404D-844D-B79253CC0C65}" name="Beverages" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{9E85945F-85A0-4518-BFCF-D421638E1E8E}" name="Pets" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{29F48BB2-8FE0-4E84-B6A5-F8A15B5225EF}" name="DryGoodsPasta" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{D629B0EB-FAE5-49D2-A8F7-E24DB031056D}" name="Bulk" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{C49EC739-C076-4025-952B-C0D0220E0A47}" name="PersonalCare" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{D4DF185E-21E5-4827-99F4-34381995108D}" name="MeatSeafood" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{EDEF6F6E-CC56-4C99-A6B0-E3A8A83B2F9E}" name="Pantry" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{517E7BD3-B333-4FDC-98CC-84A696E28B9A}" name="Breakfast" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{F6932835-B875-42C5-828C-018F7F2B6C5D}" name="CannedGoods" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{D0E6E8E6-5C0C-43A0-8DBB-7B793159E0FE}" name="DairyEggs" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{F31C092E-A4CA-45D4-9D38-3F1FABFF19A6}" name="Household" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{C3F810E3-F94B-461C-A71B-4CC0A742E11C}" name="Babies" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{EF76F9E2-866D-4E1A-9F16-B59C08C6720B}" name="Snacks" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{C08BDAAF-F2BE-4119-A33D-74B803A30C8C}" name="Deli" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{B95E8AC2-4526-47A6-A308-CB6E85440C26}" name="Missing" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F08ABB2C-8DA5-47F7-A164-4A05A2AC3260}" name="Others" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{2EB41906-9BE2-4A66-9A4E-7A311956AB55}" name="Bakery" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{F1C157A7-994E-4B77-9FC6-44C1B5FCAF4A}" name="Produce" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{7BB2EBF6-B555-4F15-A462-9B5E9A4086B2}" name="Alcohol" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{C1DE5890-7769-4667-8220-3755CB442C64}" name="International" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{C5D18042-C512-404D-844D-B79253CC0C65}" name="Beverages" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{9E85945F-85A0-4518-BFCF-D421638E1E8E}" name="Pets" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{29F48BB2-8FE0-4E84-B6A5-F8A15B5225EF}" name="DryGoodsPasta" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{D629B0EB-FAE5-49D2-A8F7-E24DB031056D}" name="Bulk" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{C49EC739-C076-4025-952B-C0D0220E0A47}" name="PersonalCare" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{D4DF185E-21E5-4827-99F4-34381995108D}" name="MeatSeafood" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{EDEF6F6E-CC56-4C99-A6B0-E3A8A83B2F9E}" name="Pantry" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{517E7BD3-B333-4FDC-98CC-84A696E28B9A}" name="Breakfast" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{F6932835-B875-42C5-828C-018F7F2B6C5D}" name="CannedGoods" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{D0E6E8E6-5C0C-43A0-8DBB-7B793159E0FE}" name="DairyEggs" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{F31C092E-A4CA-45D4-9D38-3F1FABFF19A6}" name="Household" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{C3F810E3-F94B-461C-A71B-4CC0A742E11C}" name="Babies" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{EF76F9E2-866D-4E1A-9F16-B59C08C6720B}" name="Snacks" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{C08BDAAF-F2BE-4119-A33D-74B803A30C8C}" name="Deli" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{B95E8AC2-4526-47A6-A308-CB6E85440C26}" name="Missing" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1286,13 +1221,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E74CE9D-9438-4311-805C-C9680E247DE4}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="3" customWidth="1"/>
@@ -1929,7 +1864,7 @@
     </row>
     <row r="10" spans="1:22" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5">
         <v>0.32892500000000002</v>
@@ -2065,7 +2000,7 @@
     </row>
     <row r="12" spans="1:22" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B12" s="5">
         <v>0.19750899999999999</v>
@@ -2131,9 +2066,9 @@
         <v>5.8261E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B13" s="6">
         <v>0.25769199999999998</v>
@@ -2337,7 +2272,7 @@
     </row>
     <row r="16" spans="1:22" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5">
         <v>0.30454500000000001</v>
@@ -2813,10 +2748,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:V22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2826,6 +2761,9 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
